--- a/data/darshanConnector_output_6_1_analysis.xlsx
+++ b/data/darshanConnector_output_6_1_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spwalto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C906A9A-BAB4-43EF-95A8-C5B4F2A5EF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68350255-B7B9-4311-AE3A-B2D689545A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="1185" windowWidth="24375" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobID and Runtime - 9_14-9_15" sheetId="21" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="81">
   <si>
     <t>N/A</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Application Runtime and JobID For S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mpi-io-test </t>
   </si>
 </sst>
 </file>
@@ -1446,17 +1449,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1506,7 +1507,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1572,15 +1573,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1647,14 +1639,35 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="7" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1665,14 +1678,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1680,43 +1702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="36" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="7" applyBorder="1" applyAlignment="1">
@@ -1728,22 +1714,28 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="36" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1758,7 +1750,13 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1767,43 +1765,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="7" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="47" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="48" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="15" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="67" xfId="15" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2160,10 +2153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB1610-B835-4CBF-BFBE-1737118B566A}">
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2174,645 +2167,318 @@
     <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="68" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.85546875" style="68" customWidth="1"/>
-    <col min="11" max="11" width="25" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.85546875" style="65" customWidth="1"/>
+    <col min="11" max="11" width="25" style="65" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="49"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="168" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2"/>
-      <c r="O2" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="110"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="117" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="31">
         <v>10798125</v>
       </c>
-      <c r="D3" s="156">
+      <c r="D3" s="111">
         <v>9.3792161919999995</v>
       </c>
-      <c r="E3" s="156">
+      <c r="E3" s="111">
         <v>10798124</v>
       </c>
-      <c r="F3" s="156">
+      <c r="F3" s="111">
         <v>9.1200391439999997</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="150">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="166"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="105">
         <v>10798127</v>
       </c>
-      <c r="D4" s="157">
+      <c r="D4" s="112">
         <v>10.144861829</v>
       </c>
-      <c r="E4" s="157">
+      <c r="E4" s="112">
         <v>10798126</v>
       </c>
-      <c r="F4" s="157">
+      <c r="F4" s="112">
         <v>8.9987683959999991</v>
       </c>
-      <c r="J4" s="117" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="119" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="119">
-        <v>10</v>
-      </c>
-      <c r="M4" s="119">
-        <v>22</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="26" t="e">
-        <f>AVERAGE(F33:F37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" s="26" t="e">
-        <f>AVERAGE(D33:D37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q4" s="25" t="e">
-        <f>(P4-O4)/O4</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="150">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="166"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="105">
         <v>10798129</v>
       </c>
-      <c r="D5" s="157">
+      <c r="D5" s="112">
         <v>10.194748554</v>
       </c>
-      <c r="E5" s="159">
+      <c r="E5" s="114">
         <v>10798128</v>
       </c>
-      <c r="F5" s="157">
+      <c r="F5" s="112">
         <v>8.7649680159999992</v>
       </c>
-      <c r="J5" s="118"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="26" t="e">
-        <f>AVERAGE(F38:F42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P5" s="26" t="e">
-        <f>AVERAGE(D38:D42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" s="25" t="e">
-        <f>(P5-O5)/O5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="150">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="166"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="105">
         <v>10798131</v>
       </c>
-      <c r="D6" s="157">
+      <c r="D6" s="112">
         <v>8.6248798030000007</v>
       </c>
-      <c r="E6" s="160">
+      <c r="E6" s="115">
         <v>10798130</v>
       </c>
-      <c r="F6" s="157">
+      <c r="F6" s="112">
         <v>6.8984924669999996</v>
       </c>
-      <c r="J6" s="117" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="119" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="119">
-        <v>10</v>
-      </c>
-      <c r="M6" s="119">
-        <v>22</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="26">
-        <f>AVERAGE(F23:F27)</f>
-        <v>17.437956245599999</v>
-      </c>
-      <c r="P6" s="26">
-        <f>AVERAGE(D23:D27)</f>
-        <v>13.538869263800001</v>
-      </c>
-      <c r="Q6" s="25">
-        <f>(P6-O6)/O6</f>
-        <v>-0.22359770416236871</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="112"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="151">
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="166"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="106">
         <v>10798133</v>
       </c>
-      <c r="D7" s="158">
+      <c r="D7" s="113">
         <v>7.5258506040000004</v>
       </c>
-      <c r="E7" s="158">
+      <c r="E7" s="113">
         <v>10798132</v>
       </c>
-      <c r="F7" s="158">
+      <c r="F7" s="113">
         <v>7.2535132720000002</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="27">
-        <f>AVERAGE(F28:F32)</f>
-        <v>21.967880386200001</v>
-      </c>
-      <c r="P7" s="27">
-        <f>AVERAGE(D28:D32)</f>
-        <v>20.990919902199998</v>
-      </c>
-      <c r="Q7" s="25">
-        <f>(P7-O7)/O7</f>
-        <v>-4.4472223392736578E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="114" t="s">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="166"/>
+      <c r="B8" s="117" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="31">
         <v>10798136</v>
       </c>
-      <c r="D8" s="156">
+      <c r="D8" s="111">
         <v>11.233764793000001</v>
       </c>
-      <c r="E8" s="156">
+      <c r="E8" s="111">
         <v>10798135</v>
       </c>
-      <c r="F8" s="156">
+      <c r="F8" s="111">
         <v>10.658483189</v>
       </c>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="M8" s="48"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="151">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="166"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="106">
         <v>10798138</v>
       </c>
-      <c r="D9" s="157">
+      <c r="D9" s="112">
         <v>10.726944572000001</v>
       </c>
-      <c r="E9" s="157">
+      <c r="E9" s="112">
         <v>10798137</v>
       </c>
-      <c r="F9" s="157">
+      <c r="F9" s="112">
         <v>11.227757606999999</v>
       </c>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
-      <c r="B10" s="115"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="166"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="19">
         <v>10798140</v>
       </c>
-      <c r="D10" s="157">
+      <c r="D10" s="112">
         <v>11.967239337000001</v>
       </c>
-      <c r="E10" s="157">
+      <c r="E10" s="112">
         <v>10798139</v>
       </c>
-      <c r="F10" s="157">
+      <c r="F10" s="112">
         <v>11.464425633999999</v>
       </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10"/>
-      <c r="M10" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="109"/>
-      <c r="O10" s="110"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="112"/>
-      <c r="B11" s="115"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="166"/>
+      <c r="B11" s="118"/>
       <c r="C11" s="19">
         <v>10798143</v>
       </c>
-      <c r="D11" s="157">
+      <c r="D11" s="112">
         <v>11.931675996999999</v>
       </c>
-      <c r="E11" s="157">
+      <c r="E11" s="112">
         <v>10798142</v>
       </c>
-      <c r="F11" s="157">
+      <c r="F11" s="112">
         <v>12.180122495999999</v>
       </c>
-      <c r="J11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="S11" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="T11" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="178">
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="167"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="116">
         <v>10798146</v>
       </c>
-      <c r="D12" s="158">
+      <c r="D12" s="113">
         <v>12.526504395</v>
       </c>
-      <c r="E12" s="158">
+      <c r="E12" s="113">
         <v>10798144</v>
       </c>
-      <c r="F12" s="158">
+      <c r="F12" s="113">
         <v>11.771692627</v>
       </c>
-      <c r="J12" s="117" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="20">
-        <v>5000000</v>
-      </c>
-      <c r="L12" s="119">
-        <v>16</v>
-      </c>
-      <c r="M12" s="14">
-        <f>STDEV(F13:F17)</f>
-        <v>28.547177201028049</v>
-      </c>
-      <c r="N12" s="14">
-        <f>STDEV(D13:D17)</f>
-        <v>77.583113329995328</v>
-      </c>
-      <c r="O12" s="26">
-        <f>AVERAGE(F13:F17)</f>
-        <v>430.61955561499997</v>
-      </c>
-      <c r="P12" s="26">
-        <f>AVERAGE(D13:D17)</f>
-        <v>391.51415429550002</v>
-      </c>
-      <c r="Q12" s="25">
-        <f>(P12-O12)/O12</f>
-        <v>-9.0811949456523405E-2</v>
-      </c>
-      <c r="R12" s="55">
-        <f>O12-M12</f>
-        <v>402.07237841397193</v>
-      </c>
-      <c r="S12" s="55">
-        <f>P12-N12</f>
-        <v>313.93104096550468</v>
-      </c>
-      <c r="T12" s="25">
-        <f>(N12-M12)/M12</f>
-        <v>1.7177157581521365</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="112" t="s">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="153">
+      <c r="C13" s="108">
         <v>10813460</v>
       </c>
-      <c r="D13" s="159">
+      <c r="D13" s="114">
         <v>327.22890331399998</v>
       </c>
-      <c r="E13" s="159">
+      <c r="E13" s="114">
         <v>10813555</v>
       </c>
-      <c r="F13" s="159">
+      <c r="F13" s="114">
         <v>423.22903862599998</v>
       </c>
-      <c r="J13" s="118"/>
-      <c r="K13" s="20">
-        <v>10000000</v>
-      </c>
-      <c r="L13" s="120"/>
-      <c r="M13" s="14" t="e">
-        <f>STDEV(F18:F22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="46" t="e">
-        <f>STDEV(D18:D22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="26" t="e">
-        <f>AVERAGE(F18:F22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P13" s="26" t="e">
-        <f>AVERAGE(D18:D22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" s="25" t="e">
-        <f>(P13-O13)/O13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R13" s="55" t="e">
-        <f>O13-M13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S13" s="55" t="e">
-        <f>P13-N13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" s="25" t="e">
-        <f t="shared" ref="T13:T15" si="0">(S13-R13)/R13</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="112"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="150">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="166"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="105">
         <v>10813667</v>
       </c>
-      <c r="D14" s="157">
+      <c r="D14" s="112">
         <v>331.84987700599999</v>
       </c>
-      <c r="E14" s="157">
+      <c r="E14" s="112">
         <v>10813775</v>
       </c>
-      <c r="F14" s="157">
+      <c r="F14" s="112">
         <v>390.57695249599999</v>
       </c>
-      <c r="J14" s="117" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="20">
-        <v>5000000</v>
-      </c>
-      <c r="L14" s="119">
-        <v>16</v>
-      </c>
-      <c r="M14" s="14">
-        <f>STDEV(F3:F7)</f>
-        <v>1.0479974666674152</v>
-      </c>
-      <c r="N14" s="45">
-        <f>STDEV(D3:D7)</f>
-        <v>1.1230030465226775</v>
-      </c>
-      <c r="O14" s="26">
-        <f>AVERAGE(F3:F7)</f>
-        <v>8.2071562589999978</v>
-      </c>
-      <c r="P14" s="26">
-        <f>AVERAGE(D3:D7)</f>
-        <v>9.1739113963999994</v>
-      </c>
-      <c r="Q14" s="25">
-        <f>(P14-O14)/O14</f>
-        <v>0.11779416729635851</v>
-      </c>
-      <c r="R14" s="55">
-        <f>O14-M14</f>
-        <v>7.1591587923325823</v>
-      </c>
-      <c r="S14" s="55">
-        <f>P14-N14</f>
-        <v>8.0509083498773215</v>
-      </c>
-      <c r="T14" s="25">
-        <f t="shared" si="0"/>
-        <v>0.12456066186153013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="112"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="150">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="166"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="105">
         <v>10813896</v>
       </c>
-      <c r="D15" s="157">
+      <c r="D15" s="112">
         <v>416.86067683800002</v>
       </c>
-      <c r="E15" s="157">
+      <c r="E15" s="112">
         <v>10814008</v>
       </c>
-      <c r="F15" s="157">
+      <c r="F15" s="112">
         <v>449.94468352199999</v>
       </c>
-      <c r="J15" s="116"/>
-      <c r="K15" s="21">
-        <v>10000000</v>
-      </c>
-      <c r="L15" s="121"/>
-      <c r="M15" s="56">
-        <f>STDEV(F8:F12)</f>
-        <v>0.57273745839796664</v>
-      </c>
-      <c r="N15" s="47">
-        <f>STDEV(D8:D12)</f>
-        <v>0.70175119582021395</v>
-      </c>
-      <c r="O15" s="27">
-        <f>AVERAGE(F8:F12)</f>
-        <v>11.4604963106</v>
-      </c>
-      <c r="P15" s="27">
-        <f>AVERAGE(D8:D12)</f>
-        <v>11.6772258188</v>
-      </c>
-      <c r="Q15" s="57">
-        <f>(P15-O15)/O15</f>
-        <v>1.8911005450919574E-2</v>
-      </c>
-      <c r="R15" s="58">
-        <f>O15-M15</f>
-        <v>10.887758852202033</v>
-      </c>
-      <c r="S15" s="58">
-        <f>P15-N15</f>
-        <v>10.975474622979787</v>
-      </c>
-      <c r="T15" s="57">
-        <f t="shared" si="0"/>
-        <v>8.0563660500263048E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="150">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="166"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="105">
         <v>10814154</v>
       </c>
-      <c r="D16" s="157">
+      <c r="D16" s="112">
         <v>490.11716002399999</v>
       </c>
-      <c r="E16" s="157">
+      <c r="E16" s="112">
         <v>10814310</v>
       </c>
-      <c r="F16" s="157">
+      <c r="F16" s="112">
         <v>424.26221519299997</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="M16" s="44"/>
       <c r="N16" s="44"/>
-      <c r="O16" s="60"/>
+      <c r="O16" s="57"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="112"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="179">
-        <v>10814424</v>
-      </c>
-      <c r="F17" s="180">
-        <v>465.08488823800002</v>
+      <c r="A17" s="166"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="107">
+        <v>10815103</v>
+      </c>
+      <c r="D17" s="164">
+        <v>520.07877533700002</v>
+      </c>
+      <c r="E17" s="16">
+        <v>10815282</v>
+      </c>
+      <c r="F17" s="17">
+        <v>448.48882797900001</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
-      <c r="B18" s="114" t="s">
+      <c r="A18" s="124"/>
+      <c r="B18" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="N18" s="39"/>
@@ -2820,77 +2486,71 @@
       <c r="P18" s="39"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
       <c r="J19"/>
       <c r="K19"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
+      <c r="A20" s="124"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
       <c r="J20" s="39"/>
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
       <c r="M20" s="39"/>
       <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
+      <c r="A21" s="124"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
       <c r="J21" s="39"/>
       <c r="K21" s="39"/>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
       <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="112"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
       <c r="J22" s="39"/>
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
       <c r="M22" s="39"/>
       <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="148" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="114" t="s">
+      <c r="A23" s="126" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="117" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="8">
         <v>10798093</v>
       </c>
-      <c r="D23" s="156">
+      <c r="D23" s="111">
         <v>13.330569667000001</v>
       </c>
       <c r="E23" s="8">
         <v>10798092</v>
       </c>
-      <c r="F23" s="156">
+      <c r="F23" s="111">
         <v>17.247796299000001</v>
       </c>
       <c r="J23" s="39"/>
@@ -2898,22 +2558,20 @@
       <c r="L23" s="39"/>
       <c r="M23" s="39"/>
       <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="129"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="150">
+      <c r="A24" s="121"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="105">
         <v>10798095</v>
       </c>
-      <c r="D24" s="157">
+      <c r="D24" s="112">
         <v>13.481463433</v>
       </c>
-      <c r="E24" s="157">
+      <c r="E24" s="112">
         <v>10798094</v>
       </c>
-      <c r="F24" s="157">
+      <c r="F24" s="112">
         <v>17.592252457000001</v>
       </c>
       <c r="J24" s="39"/>
@@ -2925,18 +2583,18 @@
       <c r="P24" s="39"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="129"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="150">
+      <c r="A25" s="121"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="105">
         <v>10798097</v>
       </c>
-      <c r="D25" s="157">
+      <c r="D25" s="112">
         <v>14.036540123</v>
       </c>
-      <c r="E25" s="157">
+      <c r="E25" s="112">
         <v>10798096</v>
       </c>
-      <c r="F25" s="157">
+      <c r="F25" s="112">
         <v>16.89109637</v>
       </c>
       <c r="J25" s="39"/>
@@ -2948,36 +2606,36 @@
       <c r="P25" s="39"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="129"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="150">
+      <c r="A26" s="121"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="105">
         <v>10798099</v>
       </c>
-      <c r="D26" s="157">
+      <c r="D26" s="112">
         <v>13.327106648000001</v>
       </c>
-      <c r="E26" s="157">
+      <c r="E26" s="112">
         <v>10798098</v>
       </c>
-      <c r="F26" s="157">
+      <c r="F26" s="112">
         <v>18.695320158000001</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="129"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="152">
+      <c r="A27" s="121"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="107">
         <v>10798101</v>
       </c>
-      <c r="D27" s="160">
+      <c r="D27" s="115">
         <v>13.518666447999999</v>
       </c>
-      <c r="E27" s="160">
+      <c r="E27" s="115">
         <v>10798100</v>
       </c>
-      <c r="F27" s="160">
+      <c r="F27" s="115">
         <v>16.763315943999999</v>
       </c>
       <c r="J27" s="24"/>
@@ -2988,20 +2646,20 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="129"/>
-      <c r="B28" s="114" t="s">
+      <c r="A28" s="121"/>
+      <c r="B28" s="117" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="1">
         <v>10798103</v>
       </c>
-      <c r="D28" s="156">
+      <c r="D28" s="111">
         <v>20.767623158999999</v>
       </c>
-      <c r="E28" s="156">
+      <c r="E28" s="111">
         <v>10798102</v>
       </c>
-      <c r="F28" s="156">
+      <c r="F28" s="111">
         <v>21.834127528</v>
       </c>
       <c r="J28" s="24"/>
@@ -3012,166 +2670,206 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="129"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="150">
+      <c r="A29" s="121"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="105">
         <v>10798105</v>
       </c>
-      <c r="D29" s="157">
+      <c r="D29" s="112">
         <v>21.617825710999998</v>
       </c>
-      <c r="E29" s="157">
+      <c r="E29" s="112">
         <v>10798104</v>
       </c>
-      <c r="F29" s="157">
+      <c r="F29" s="112">
         <v>20.320943272000001</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="129"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="150">
+      <c r="A30" s="121"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="105">
         <v>10798107</v>
       </c>
-      <c r="D30" s="157">
+      <c r="D30" s="112">
         <v>20.974693059</v>
       </c>
-      <c r="E30" s="157">
+      <c r="E30" s="112">
         <v>10798106</v>
       </c>
-      <c r="F30" s="157">
+      <c r="F30" s="112">
         <v>21.115678624000001</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="129"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="150">
+      <c r="A31" s="121"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="105">
         <v>10798109</v>
       </c>
-      <c r="D31" s="157">
+      <c r="D31" s="112">
         <v>21.493624488999998</v>
       </c>
-      <c r="E31" s="157">
+      <c r="E31" s="112">
         <v>10798108</v>
       </c>
-      <c r="F31" s="157">
+      <c r="F31" s="112">
         <v>25.358361187</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="130"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="152">
+      <c r="A32" s="122"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="107">
         <v>10798111</v>
       </c>
-      <c r="D32" s="158">
+      <c r="D32" s="113">
         <v>20.100833092999999</v>
       </c>
-      <c r="E32" s="158">
+      <c r="E32" s="113">
         <v>10798110</v>
       </c>
-      <c r="F32" s="158">
+      <c r="F32" s="113">
         <v>21.21029132</v>
       </c>
       <c r="X32" s="1"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="149" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="115" t="s">
+      <c r="A33" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
+      <c r="C33" s="1">
+        <v>10815522</v>
+      </c>
+      <c r="D33" s="114">
+        <v>1216.268117093</v>
+      </c>
+      <c r="E33" s="114">
+        <v>10818126</v>
+      </c>
+      <c r="F33" s="114">
+        <v>1767.043704665</v>
+      </c>
       <c r="X33" s="22"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="129"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="105">
+        <v>10818917</v>
+      </c>
+      <c r="D34" s="112">
+        <v>1191.0571886140001</v>
+      </c>
+      <c r="E34" s="112">
+        <v>10819636</v>
+      </c>
+      <c r="F34" s="112">
+        <v>1182.7276860520001</v>
+      </c>
       <c r="X34" s="1"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="129"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="150"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="105">
+        <v>10820312</v>
+      </c>
+      <c r="D35" s="112">
+        <v>1280.9542178710001</v>
+      </c>
+      <c r="E35" s="112">
+        <v>10820968</v>
+      </c>
+      <c r="F35" s="112">
+        <v>1192.5285357170001</v>
+      </c>
       <c r="X35" s="1"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="129"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
+      <c r="A36" s="121"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="105">
+        <v>10821842</v>
+      </c>
+      <c r="D36" s="112">
+        <v>1444.5295679999999</v>
+      </c>
+      <c r="E36" s="112">
+        <v>10822503</v>
+      </c>
+      <c r="F36" s="112">
+        <v>1373.3448539169999</v>
+      </c>
       <c r="X36" s="1"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="129"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="160"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="160"/>
+      <c r="A37" s="121"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="107">
+        <v>10823748</v>
+      </c>
+      <c r="D37" s="115">
+        <v>1372.3346210540001</v>
+      </c>
+      <c r="E37" s="115">
+        <v>10798165</v>
+      </c>
+      <c r="F37" s="115">
+        <v>1445.186437758</v>
+      </c>
       <c r="X37" s="1"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="129"/>
-      <c r="B38" s="114" t="s">
+      <c r="A38" s="121"/>
+      <c r="B38" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
       <c r="X38" s="1"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="129"/>
-      <c r="B39" s="115" t="s">
+      <c r="A39" s="121"/>
+      <c r="B39" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="150"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
       <c r="X39" s="1"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="129"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
       <c r="X40" s="1"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="129"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="150"/>
-      <c r="D41" s="157"/>
-      <c r="E41" s="157"/>
-      <c r="F41" s="157"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
       <c r="X41" s="1"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="130"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
+      <c r="A42" s="122"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
       <c r="X42" s="1"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
@@ -3188,786 +2886,700 @@
       <c r="X44" s="1"/>
     </row>
     <row r="45" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="13" t="s">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="130"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="156" t="s">
+        <v>68</v>
+      </c>
+      <c r="J45" s="157"/>
+      <c r="K45" s="157"/>
+      <c r="L45" s="157"/>
+      <c r="M45" s="158"/>
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="F45" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="G45" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="H45" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="I45" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="X45" s="1"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="111" t="s">
+      <c r="B46" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M46" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="127" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="127">
+        <v>10</v>
+      </c>
+      <c r="D47" s="127">
+        <v>22</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="26">
+        <f>AVERAGE(F33:F37)</f>
+        <v>1392.1662436218</v>
+      </c>
+      <c r="G47" s="26">
+        <f>AVERAGE(D33:D37)</f>
+        <v>1301.0287425264</v>
+      </c>
+      <c r="H47" s="25">
+        <f>(G47-F47)/F47</f>
+        <v>-6.5464524450974046E-2</v>
+      </c>
+      <c r="I47" s="109">
+        <f>STDEV(F33:F37)</f>
+        <v>238.44193229655386</v>
+      </c>
+      <c r="J47" s="11">
+        <f>STDEV(D33:D37)</f>
+        <v>106.48721526327319</v>
+      </c>
+      <c r="K47" s="26">
+        <f>F47-I47</f>
+        <v>1153.7243113252462</v>
+      </c>
+      <c r="L47" s="26">
+        <f>G47-J47</f>
+        <v>1194.5415272631269</v>
+      </c>
+      <c r="M47" s="25">
+        <f>(L47-K47)/K47</f>
+        <v>3.5378656354216304E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="133"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="26" t="e">
+        <f>AVERAGE(F38:F42)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G48" s="26" t="e">
+        <f>AVERAGE(D38:D42)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H48" s="25" t="e">
+        <f>(G48-F48)/F48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I48" s="109" t="e">
+        <f>STDEV(F38:F42)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J48" s="11" t="e">
+        <f>STDEV(D38:D42)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K48" s="26" t="e">
+        <f>F48-I48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L48" s="26" t="e">
+        <f>G48-J48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M48" s="25" t="e">
+        <f>(L48-K48)/K48</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="127" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="127">
+        <v>10</v>
+      </c>
+      <c r="D49" s="127">
+        <v>22</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="26">
+        <f>AVERAGE(F23:F27)</f>
+        <v>17.437956245599999</v>
+      </c>
+      <c r="G49" s="26">
+        <f>AVERAGE(D23:D27)</f>
+        <v>13.538869263800001</v>
+      </c>
+      <c r="H49" s="25">
+        <f>(G49-F49)/F49</f>
+        <v>-0.22359770416236871</v>
+      </c>
+      <c r="I49" s="109">
+        <f>STDEV(F23:F27)</f>
+        <v>0.77380995639002581</v>
+      </c>
+      <c r="J49" s="11">
+        <f>STDEV(D23:D27)</f>
+        <v>0.29138119137585627</v>
+      </c>
+      <c r="K49" s="26">
+        <f>F49-I49</f>
+        <v>16.664146289209974</v>
+      </c>
+      <c r="L49" s="26">
+        <f>G49-J49</f>
+        <v>13.247488072424144</v>
+      </c>
+      <c r="M49" s="25">
+        <f>(L49-K49)/K49</f>
+        <v>-0.20503049826189504</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="119"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="27">
+        <f>AVERAGE(F28:F32)</f>
+        <v>21.967880386200001</v>
+      </c>
+      <c r="G50" s="27">
+        <f>AVERAGE(D28:D32)</f>
+        <v>20.990919902199998</v>
+      </c>
+      <c r="H50" s="25">
+        <f>(G50-F50)/F50</f>
+        <v>-4.4472223392736578E-2</v>
+      </c>
+      <c r="I50" s="109">
+        <f>STDEV(F28:F32)</f>
+        <v>1.9701421765016143</v>
+      </c>
+      <c r="J50" s="11">
+        <f>STDEV(D28:D32)</f>
+        <v>0.60993894542256055</v>
+      </c>
+      <c r="K50" s="27">
+        <f>F50-I50</f>
+        <v>19.997738209698387</v>
+      </c>
+      <c r="L50" s="27">
+        <f>G50-J50</f>
+        <v>20.380980956777439</v>
+      </c>
+      <c r="M50" s="25">
+        <f>(L50-K50)/K50</f>
+        <v>1.9164304635870731E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D51" s="45"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G52"/>
+      <c r="H52" s="1"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="114" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="18">
-        <v>2141</v>
-      </c>
-      <c r="D46" s="14">
-        <v>149.547391</v>
-      </c>
-      <c r="E46" s="14">
-        <f>C46/D3</f>
-        <v>228.27067381453105</v>
-      </c>
-      <c r="F46" s="14">
-        <v>335.32248900000002</v>
-      </c>
-      <c r="G46" s="15">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H46" s="170">
-        <f>AVERAGE(C46:C50)</f>
-        <v>1995.4</v>
-      </c>
-      <c r="I46" s="171">
-        <f>AVERAGE(E46:E50)</f>
-        <v>218.88783638239957</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="112"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="154">
-        <v>2003</v>
-      </c>
-      <c r="D47" s="11">
-        <v>145.82443499999999</v>
-      </c>
-      <c r="E47" s="11">
-        <f>C47/D4</f>
-        <v>197.43985021799355</v>
-      </c>
-      <c r="F47" s="11">
-        <v>356.86111899999997</v>
-      </c>
-      <c r="G47" s="19">
-        <v>9.7999999999999997E-4</v>
-      </c>
-      <c r="H47" s="163"/>
-      <c r="I47" s="164"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="112"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="154">
-        <v>2334</v>
-      </c>
-      <c r="D48" s="11">
-        <v>103.002334</v>
-      </c>
-      <c r="E48" s="11">
-        <f>C48/D5</f>
-        <v>228.94139935253571</v>
-      </c>
-      <c r="F48" s="11">
-        <v>365.237345</v>
-      </c>
-      <c r="G48" s="19">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H48" s="163"/>
-      <c r="I48" s="164"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="112"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="154">
-        <v>1485</v>
-      </c>
-      <c r="D49" s="11">
-        <v>158.704285</v>
-      </c>
-      <c r="E49" s="11">
-        <f>C49/D6</f>
-        <v>172.17631247260638</v>
-      </c>
-      <c r="F49" s="11">
-        <v>362.63646999999997</v>
-      </c>
-      <c r="G49" s="19">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="H49" s="163"/>
-      <c r="I49" s="164"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="112"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="154">
-        <v>2014</v>
-      </c>
-      <c r="D50" s="11">
-        <v>148.56598</v>
-      </c>
-      <c r="E50" s="11">
-        <f>C50/D7</f>
-        <v>267.61094605433118</v>
-      </c>
-      <c r="F50" s="11">
-        <v>340.84811500000001</v>
-      </c>
-      <c r="G50" s="19">
-        <v>8.52E-4</v>
-      </c>
-      <c r="H50" s="163"/>
-      <c r="I50" s="164"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="112"/>
-      <c r="B51" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="154">
-        <v>2019</v>
-      </c>
-      <c r="D51" s="11">
-        <v>184.31041300000001</v>
-      </c>
-      <c r="E51" s="11">
-        <f>C51/D8</f>
-        <v>179.72603461112897</v>
-      </c>
-      <c r="F51" s="11">
-        <v>887.944525</v>
-      </c>
-      <c r="G51" s="19">
-        <v>1.2999999999999999E-4</v>
-      </c>
-      <c r="H51" s="154">
-        <f>AVERAGE(C51:C55)</f>
-        <v>1711</v>
-      </c>
-      <c r="I51" s="162">
-        <f>AVERAGE(E51:E55)</f>
-        <v>147.40925441616741</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="112"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="154">
-        <v>1737</v>
-      </c>
-      <c r="D52" s="11">
-        <v>117.829229</v>
-      </c>
-      <c r="E52" s="11">
-        <f>C52/D9</f>
-        <v>161.92868233271224</v>
-      </c>
-      <c r="F52" s="11">
-        <v>464.29400399999997</v>
-      </c>
-      <c r="G52" s="19">
-        <v>7.76E-4</v>
-      </c>
-      <c r="H52" s="163"/>
-      <c r="I52" s="164"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="112"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="154">
-        <v>1525</v>
-      </c>
-      <c r="D53" s="11">
-        <v>96.624724799999996</v>
-      </c>
-      <c r="E53" s="11">
-        <f>C53/D10</f>
-        <v>127.43122762532579</v>
-      </c>
-      <c r="F53" s="11">
-        <v>469.514634</v>
-      </c>
-      <c r="G53" s="19">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H53" s="163"/>
-      <c r="I53" s="164"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="112"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="154">
-        <v>1657</v>
-      </c>
-      <c r="D54" s="11">
-        <v>157.71228600000001</v>
-      </c>
-      <c r="E54" s="11">
-        <f>C54/D11</f>
-        <v>138.8740358367611</v>
-      </c>
-      <c r="F54" s="11">
-        <v>477.70396699999998</v>
-      </c>
-      <c r="G54" s="19">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H54" s="163"/>
-      <c r="I54" s="164"/>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="113"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="155">
-        <v>1617</v>
-      </c>
-      <c r="D55" s="16">
-        <v>141.45728700000001</v>
-      </c>
-      <c r="E55" s="16">
-        <f>C55/D12</f>
-        <v>129.08629167490903</v>
-      </c>
-      <c r="F55" s="16">
-        <v>459.45245399999999</v>
-      </c>
-      <c r="G55" s="17">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H55" s="172"/>
-      <c r="I55" s="173"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="166"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="167"/>
-      <c r="H56" s="168"/>
-      <c r="I56" s="169"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="112"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="154"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="163"/>
-      <c r="I57" s="164"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="112"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="154"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="163"/>
-      <c r="I58" s="164"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="112"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="154"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="163"/>
-      <c r="I59" s="164"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="112"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="154"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="163"/>
-      <c r="I60" s="164"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="112"/>
-      <c r="B61" s="114" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="154"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="161"/>
-      <c r="I61" s="162"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="112"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="154"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="163"/>
-      <c r="I62" s="164"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="112"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="154"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="163"/>
-      <c r="I63" s="164"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="112"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="154"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="163"/>
-      <c r="I64" s="164"/>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="112"/>
-      <c r="B65" s="115"/>
-      <c r="C65" s="174"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="175"/>
-      <c r="H65" s="176"/>
-      <c r="I65" s="177"/>
+      <c r="D53" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="130"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="156" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="157"/>
+      <c r="K53" s="158"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="159" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="20">
+        <v>5000000</v>
+      </c>
+      <c r="C55" s="127">
+        <v>16</v>
+      </c>
+      <c r="D55" s="26">
+        <f>AVERAGE(F13:F17)</f>
+        <v>427.30034356319993</v>
+      </c>
+      <c r="E55" s="26">
+        <f>AVERAGE(D13:D17)</f>
+        <v>417.22707850380004</v>
+      </c>
+      <c r="F55" s="160">
+        <f>(E55-D55)/D55</f>
+        <v>-2.357420304275978E-2</v>
+      </c>
+      <c r="G55" s="109">
+        <f>STDEV(F13:F17)</f>
+        <v>24.166770591911401</v>
+      </c>
+      <c r="H55" s="11">
+        <f>STDEV(D13:D17)</f>
+        <v>88.431481736936064</v>
+      </c>
+      <c r="I55" s="26">
+        <f>D55-G55</f>
+        <v>403.13357297128852</v>
+      </c>
+      <c r="J55" s="26">
+        <f>E55-H55</f>
+        <v>328.79559676686398</v>
+      </c>
+      <c r="K55" s="25">
+        <f>(J55-I55)/I55</f>
+        <v>-0.18440036054679809</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="133"/>
+      <c r="B56" s="20">
+        <v>10000000</v>
+      </c>
+      <c r="C56" s="134"/>
+      <c r="D56" s="26" t="e">
+        <f>AVERAGE(F18:F22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E56" s="26" t="e">
+        <f>AVERAGE(D18:D22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F56" s="160" t="e">
+        <f>(E56-D56)/D56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G56" s="109" t="e">
+        <f>STDEV(F18:F22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H56" s="162" t="e">
+        <f>STDEV(D18:D22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I56" s="26" t="e">
+        <f>D56-G56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J56" s="26" t="e">
+        <f>E56-H56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K56" s="25" t="e">
+        <f>(J56-I56)/I56</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="20">
+        <v>5000000</v>
+      </c>
+      <c r="C57" s="127">
+        <v>16</v>
+      </c>
+      <c r="D57" s="26">
+        <f>AVERAGE(F3:F7)</f>
+        <v>8.2071562589999978</v>
+      </c>
+      <c r="E57" s="26">
+        <f>AVERAGE(D3:D7)</f>
+        <v>9.1739113963999994</v>
+      </c>
+      <c r="F57" s="160">
+        <f>(E57-D57)/D57</f>
+        <v>0.11779416729635851</v>
+      </c>
+      <c r="G57" s="109">
+        <f>STDEV(F3:F7)</f>
+        <v>1.0479974666674152</v>
+      </c>
+      <c r="H57" s="162">
+        <f>STDEV(D3:D7)</f>
+        <v>1.1230030465226775</v>
+      </c>
+      <c r="I57" s="26">
+        <f>D57-G57</f>
+        <v>7.1591587923325823</v>
+      </c>
+      <c r="J57" s="26">
+        <f>E57-H57</f>
+        <v>8.0509083498773215</v>
+      </c>
+      <c r="K57" s="25">
+        <f>(J57-I57)/I57</f>
+        <v>0.12456066186153013</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="119"/>
+      <c r="B58" s="21">
+        <v>10000000</v>
+      </c>
+      <c r="C58" s="128"/>
+      <c r="D58" s="27">
+        <f>AVERAGE(F8:F12)</f>
+        <v>11.4604963106</v>
+      </c>
+      <c r="E58" s="27">
+        <f>AVERAGE(D8:D12)</f>
+        <v>11.6772258188</v>
+      </c>
+      <c r="F58" s="161">
+        <f>(E58-D58)/D58</f>
+        <v>1.8911005450919574E-2</v>
+      </c>
+      <c r="G58" s="110">
+        <f>STDEV(F8:F12)</f>
+        <v>0.57273745839796664</v>
+      </c>
+      <c r="H58" s="163">
+        <f>STDEV(D8:D12)</f>
+        <v>0.70175119582021395</v>
+      </c>
+      <c r="I58" s="27">
+        <f>D58-G58</f>
+        <v>10.887758852202033</v>
+      </c>
+      <c r="J58" s="27">
+        <f>E58-H58</f>
+        <v>10.975474622979787</v>
+      </c>
+      <c r="K58" s="25">
+        <f>(J58-I58)/I58</f>
+        <v>8.0563660500263048E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="148" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" s="114" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="18">
-        <v>25424</v>
-      </c>
-      <c r="D66" s="14">
-        <v>53.798136399999997</v>
-      </c>
-      <c r="E66" s="14">
-        <f>C66/D23</f>
-        <v>1907.1953138610006</v>
-      </c>
-      <c r="F66" s="14">
-        <v>160.434224</v>
-      </c>
-      <c r="G66" s="15">
-        <v>8.7399999999999999E-4</v>
-      </c>
-      <c r="H66" s="170">
-        <f>AVERAGE(C66:C70)</f>
-        <v>25769.599999999999</v>
-      </c>
-      <c r="I66" s="171">
-        <f>AVERAGE(E66:E70)</f>
-        <v>1903.0418363401227</v>
-      </c>
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="129"/>
-      <c r="B67" s="115"/>
-      <c r="C67" s="154">
-        <v>23412</v>
-      </c>
-      <c r="D67" s="11">
-        <v>61.668591800000002</v>
-      </c>
-      <c r="E67" s="11">
-        <f>C67/D24</f>
-        <v>1736.6067205057263</v>
-      </c>
-      <c r="F67" s="11">
-        <v>157.515199</v>
-      </c>
-      <c r="G67" s="19">
-        <v>1.5499999999999999E-3</v>
-      </c>
-      <c r="H67" s="154"/>
-      <c r="I67" s="19"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="129"/>
-      <c r="B68" s="115"/>
-      <c r="C68" s="154">
-        <v>27250</v>
-      </c>
-      <c r="D68" s="11">
-        <v>48.402076700000002</v>
-      </c>
-      <c r="E68" s="11">
-        <f>C68/D25</f>
-        <v>1941.3616005947708</v>
-      </c>
-      <c r="F68" s="11">
-        <v>159.11362700000001</v>
-      </c>
-      <c r="G68" s="19">
-        <v>8.5400000000000005E-4</v>
-      </c>
-      <c r="H68" s="154"/>
-      <c r="I68" s="19"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="129"/>
-      <c r="B69" s="115"/>
-      <c r="C69" s="154">
-        <v>25531</v>
-      </c>
-      <c r="D69" s="11">
-        <v>52.625476800000001</v>
-      </c>
-      <c r="E69" s="11">
-        <f>C69/D26</f>
-        <v>1915.7196437556413</v>
-      </c>
-      <c r="F69" s="11">
-        <v>159.23238499999999</v>
-      </c>
-      <c r="G69" s="19">
-        <v>8.0400000000000003E-4</v>
-      </c>
-      <c r="H69" s="154"/>
-      <c r="I69" s="19"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="129"/>
-      <c r="B70" s="116"/>
-      <c r="C70" s="154">
-        <v>27231</v>
-      </c>
-      <c r="D70" s="11">
-        <v>56.608626800000003</v>
-      </c>
-      <c r="E70" s="11">
-        <f>C70/D27</f>
-        <v>2014.3259029834746</v>
-      </c>
-      <c r="F70" s="11">
-        <v>159.50080700000001</v>
-      </c>
-      <c r="G70" s="19">
-        <v>9.1500000000000001E-4</v>
-      </c>
-      <c r="H70" s="154"/>
-      <c r="I70" s="19"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="129"/>
-      <c r="B71" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="154">
-        <v>11326</v>
-      </c>
-      <c r="D71" s="11">
-        <v>45.269123499999999</v>
-      </c>
-      <c r="E71" s="11">
-        <f>C71/D28</f>
-        <v>545.36813930445805</v>
-      </c>
-      <c r="F71" s="11">
-        <v>245.00538399999999</v>
-      </c>
-      <c r="G71" s="19">
-        <v>2.9E-5</v>
-      </c>
-      <c r="H71" s="161">
-        <f>AVERAGE(C71:C75)</f>
-        <v>15676.2</v>
-      </c>
-      <c r="I71" s="162">
-        <f>AVERAGE(E71:E75)</f>
-        <v>754.99000780005554</v>
-      </c>
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="129"/>
-      <c r="B72" s="115"/>
-      <c r="C72" s="154">
-        <v>11212</v>
-      </c>
-      <c r="D72" s="11">
-        <v>28.0818394</v>
-      </c>
-      <c r="E72" s="11">
-        <f>C72/D29</f>
-        <v>518.64605395050876</v>
-      </c>
-      <c r="F72" s="11">
-        <v>270.04297000000003</v>
-      </c>
-      <c r="G72" s="19">
-        <v>2.5099999999999998E-4</v>
-      </c>
-      <c r="H72" s="154"/>
-      <c r="I72" s="19"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="129"/>
-      <c r="B73" s="115"/>
-      <c r="C73" s="154">
-        <v>16452</v>
-      </c>
-      <c r="D73" s="11">
-        <v>22.234570900000001</v>
-      </c>
-      <c r="E73" s="11">
-        <f>C73/D30</f>
-        <v>784.37381437344254</v>
-      </c>
-      <c r="F73" s="11">
-        <v>255.22477599999999</v>
-      </c>
-      <c r="G73" s="19">
-        <v>1.66E-4</v>
-      </c>
-      <c r="H73" s="154"/>
-      <c r="I73" s="19"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="129"/>
-      <c r="B74" s="115"/>
-      <c r="C74" s="154">
-        <v>10270</v>
-      </c>
-      <c r="D74" s="11">
-        <v>37.467402700000001</v>
-      </c>
-      <c r="E74" s="11">
-        <f>C74/D31</f>
-        <v>477.81610799313898</v>
-      </c>
-      <c r="F74" s="11">
-        <v>259.19104299999998</v>
-      </c>
-      <c r="G74" s="19">
-        <v>1.75E-4</v>
-      </c>
-      <c r="H74" s="154"/>
-      <c r="I74" s="19"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="130"/>
-      <c r="B75" s="116"/>
-      <c r="C75" s="155">
-        <v>29121</v>
-      </c>
-      <c r="D75" s="16">
-        <v>15.4866703</v>
-      </c>
-      <c r="E75" s="16">
-        <f>C75/D32</f>
-        <v>1448.7459233787292</v>
-      </c>
-      <c r="F75" s="16">
-        <v>300.72000300000002</v>
-      </c>
-      <c r="G75" s="17">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="H75" s="155"/>
-      <c r="I75" s="17"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="149" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="166"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="167"/>
-      <c r="H76" s="166"/>
-      <c r="I76" s="169"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="129"/>
-      <c r="B77" s="115"/>
-      <c r="C77" s="154"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="154"/>
-      <c r="I77" s="19"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="129"/>
-      <c r="B78" s="115"/>
-      <c r="C78" s="154"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="154"/>
-      <c r="I78" s="19"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="129"/>
-      <c r="B79" s="115"/>
-      <c r="C79" s="154"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="154"/>
-      <c r="I79" s="19"/>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="129"/>
-      <c r="B80" s="116"/>
-      <c r="C80" s="154"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="154"/>
-      <c r="I80" s="19"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="129"/>
-      <c r="B81" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="C81" s="154"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="161"/>
-      <c r="I81" s="162"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="129"/>
-      <c r="B82" s="115" t="s">
-        <v>33</v>
-      </c>
-      <c r="C82" s="154"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="161"/>
-      <c r="I82" s="19"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="129"/>
-      <c r="B83" s="115"/>
-      <c r="C83" s="154"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="161"/>
-      <c r="I83" s="19"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="129"/>
-      <c r="B84" s="115"/>
-      <c r="C84" s="154"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="161"/>
-      <c r="I84" s="19"/>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="130"/>
-      <c r="B85" s="116"/>
-      <c r="C85" s="155"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="165"/>
-      <c r="I85" s="17"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="A76:A85"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A56:A65"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="A66:A75"/>
+  <mergeCells count="29">
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="A23:A32"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="A33:A42"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3990,10 +3602,10 @@
     <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="68" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.85546875" style="68" customWidth="1"/>
-    <col min="11" max="11" width="25" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.85546875" style="65" customWidth="1"/>
+    <col min="11" max="11" width="25" style="65" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="25" customWidth="1"/>
     <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" customWidth="1"/>
@@ -4003,13 +3615,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="131"/>
       <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4022,86 +3634,86 @@
       <c r="C2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="M2" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="50"/>
+      <c r="N2" s="47"/>
       <c r="O2" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="108" t="s">
+      <c r="T2" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="109"/>
-      <c r="V2" s="110"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="131"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="117" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="14">
         <v>256249</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="58">
         <v>574.31474047200004</v>
       </c>
       <c r="E3" s="14">
         <v>255460</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="60">
         <v>574.14340716200002</v>
       </c>
-      <c r="G3" s="88">
+      <c r="G3" s="85">
         <v>16258</v>
       </c>
-      <c r="H3" s="89">
+      <c r="H3" s="86">
         <v>4.9242663900000002E-3</v>
       </c>
-      <c r="I3" s="89">
+      <c r="I3" s="86">
         <f>G3/D3</f>
         <v>28.308519448131136</v>
       </c>
-      <c r="J3" s="89">
+      <c r="J3" s="86">
         <v>3.5119999999999998E-2</v>
       </c>
-      <c r="K3" s="90">
+      <c r="K3" s="87">
         <v>0</v>
       </c>
-      <c r="L3" s="107">
+      <c r="L3" s="104">
         <f>AVERAGE(G3:G7)</f>
         <v>11149.2</v>
       </c>
-      <c r="M3" s="107">
+      <c r="M3" s="104">
         <f>AVERAGE(I3:I7)</f>
         <v>19.432354426601403</v>
       </c>
@@ -4131,8 +3743,8 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
-      <c r="B4" s="115"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="11">
         <v>256252</v>
       </c>
@@ -4142,35 +3754,35 @@
       <c r="E4" s="11">
         <v>255461</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="49">
         <v>577.346727805</v>
       </c>
-      <c r="G4" s="78">
+      <c r="G4" s="75">
         <v>6179</v>
       </c>
-      <c r="H4" s="79">
+      <c r="H4" s="76">
         <v>148.56598</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I56" si="0">G4/D4</f>
         <v>10.746253794055562</v>
       </c>
-      <c r="J4" s="79">
+      <c r="J4" s="76">
         <v>9.1540000000000007E-3</v>
       </c>
-      <c r="K4" s="80">
+      <c r="K4" s="77">
         <v>0</v>
       </c>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="119" t="s">
+      <c r="P4" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="119">
+      <c r="Q4" s="127">
         <v>10</v>
       </c>
-      <c r="R4" s="119">
+      <c r="R4" s="127">
         <v>22</v>
       </c>
       <c r="S4" s="11" t="s">
@@ -4190,8 +3802,8 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
-      <c r="B5" s="115"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="118"/>
       <c r="C5" s="11">
         <v>256253</v>
       </c>
@@ -4201,29 +3813,29 @@
       <c r="E5" s="11">
         <v>255462</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="49">
         <v>576.43512899699999</v>
       </c>
-      <c r="G5" s="78">
+      <c r="G5" s="75">
         <v>11165</v>
       </c>
-      <c r="H5" s="79">
+      <c r="H5" s="76">
         <v>5.2058456799999996E-3</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
         <v>19.503385837680568</v>
       </c>
-      <c r="J5" s="79">
+      <c r="J5" s="76">
         <v>2.5114999999999998E-2</v>
       </c>
-      <c r="K5" s="80">
+      <c r="K5" s="77">
         <v>0</v>
       </c>
-      <c r="O5" s="118"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
       <c r="S5" s="11" t="s">
         <v>30</v>
       </c>
@@ -4241,8 +3853,8 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="115"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="11">
         <v>256254</v>
       </c>
@@ -4252,35 +3864,35 @@
       <c r="E6" s="11">
         <v>255464</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="49">
         <v>579.40429448099997</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="75">
         <v>11103</v>
       </c>
-      <c r="H6" s="79">
+      <c r="H6" s="76">
         <v>4.6551238399999998E-3</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
         <v>19.359812702629213</v>
       </c>
-      <c r="J6" s="79">
+      <c r="J6" s="76">
         <v>1.1435000000000001E-2</v>
       </c>
-      <c r="K6" s="80">
+      <c r="K6" s="77">
         <v>0</v>
       </c>
-      <c r="O6" s="117" t="s">
+      <c r="O6" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="119" t="s">
+      <c r="P6" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="119">
+      <c r="Q6" s="127">
         <v>10</v>
       </c>
-      <c r="R6" s="119">
+      <c r="R6" s="127">
         <v>22</v>
       </c>
       <c r="S6" s="11" t="s">
@@ -4300,8 +3912,8 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
-      <c r="B7" s="116"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="16">
         <v>256248</v>
       </c>
@@ -4311,29 +3923,29 @@
       <c r="E7" s="16">
         <v>255455</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="50">
         <v>576.95817390900004</v>
       </c>
-      <c r="G7" s="84">
+      <c r="G7" s="81">
         <v>11041</v>
       </c>
-      <c r="H7" s="85">
+      <c r="H7" s="82">
         <v>4.7204631800000004E-3</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
         <v>19.243800350510536</v>
       </c>
-      <c r="J7" s="85">
+      <c r="J7" s="82">
         <v>1.1129999999999999E-2</v>
       </c>
-      <c r="K7" s="86">
+      <c r="K7" s="83">
         <v>0</v>
       </c>
-      <c r="O7" s="116"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="128"/>
       <c r="S7" s="16" t="s">
         <v>30</v>
       </c>
@@ -4351,54 +3963,54 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="118" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="38">
         <v>256255</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="62">
         <v>628.61788445499997</v>
       </c>
       <c r="E8" s="38">
         <v>255800</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="63">
         <v>374.31231366899999</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="85">
         <v>2141</v>
       </c>
-      <c r="H8" s="89">
+      <c r="H8" s="86">
         <v>149.547391</v>
       </c>
-      <c r="I8" s="89">
+      <c r="I8" s="86">
         <f t="shared" si="0"/>
         <v>3.4058846446219189</v>
       </c>
-      <c r="J8" s="89">
+      <c r="J8" s="86">
         <v>335.32248900000002</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="87">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="L8" s="107">
+      <c r="L8" s="104">
         <f>AVERAGE(G8:G12)</f>
         <v>1995.4</v>
       </c>
-      <c r="M8" s="107">
+      <c r="M8" s="104">
         <f>AVERAGE(I8:I12)</f>
         <v>3.1028051549233626</v>
       </c>
-      <c r="N8" s="67"/>
+      <c r="N8" s="64"/>
       <c r="R8" s="23"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
-      <c r="B9" s="115"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="11">
         <v>256257</v>
       </c>
@@ -4408,33 +4020,33 @@
       <c r="E9" s="11">
         <v>255801</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="49">
         <v>417.44163908600001</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="75">
         <v>2003</v>
       </c>
-      <c r="H9" s="79">
+      <c r="H9" s="76">
         <v>145.82443499999999</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
         <v>3.0850856020818593</v>
       </c>
-      <c r="J9" s="79">
+      <c r="J9" s="76">
         <v>356.86111899999997</v>
       </c>
-      <c r="K9" s="80">
+      <c r="K9" s="77">
         <v>9.7999999999999997E-4</v>
       </c>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
-      <c r="B10" s="115"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="11">
         <v>256258</v>
       </c>
@@ -4444,44 +4056,44 @@
       <c r="E10" s="11">
         <v>255802</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="49">
         <v>438.08886448499999</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="75">
         <v>2334</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="76">
         <v>103.002334</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
         <v>3.6310978361585096</v>
       </c>
-      <c r="J10" s="79">
+      <c r="J10" s="76">
         <v>365.237345</v>
       </c>
-      <c r="K10" s="80">
+      <c r="K10" s="77">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
       <c r="O10" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="108" t="s">
+      <c r="R10" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="109"/>
-      <c r="T10" s="110"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="131"/>
       <c r="V10" s="1"/>
       <c r="W10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="112"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="118"/>
       <c r="C11" s="11">
         <v>256259</v>
       </c>
@@ -4491,28 +4103,28 @@
       <c r="E11" s="11">
         <v>255803</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="49">
         <v>428.527406262</v>
       </c>
-      <c r="G11" s="78">
+      <c r="G11" s="75">
         <v>1485</v>
       </c>
-      <c r="H11" s="79">
+      <c r="H11" s="76">
         <v>158.704285</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
         <v>2.2889983691868809</v>
       </c>
-      <c r="J11" s="79">
+      <c r="J11" s="76">
         <v>362.63646999999997</v>
       </c>
-      <c r="K11" s="80">
+      <c r="K11" s="77">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
       <c r="O11" s="18" t="s">
         <v>16</v>
       </c>
@@ -4548,8 +4160,8 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="124"/>
+      <c r="B12" s="118"/>
       <c r="C12" s="37">
         <v>256250</v>
       </c>
@@ -4559,35 +4171,35 @@
       <c r="E12" s="37">
         <v>255791</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="51">
         <v>427.30697615399998</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="81">
         <v>2014</v>
       </c>
-      <c r="H12" s="85">
+      <c r="H12" s="82">
         <v>148.56598</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="0"/>
         <v>3.1029593225676435</v>
       </c>
-      <c r="J12" s="85">
+      <c r="J12" s="82">
         <v>340.84811500000001</v>
       </c>
-      <c r="K12" s="86">
+      <c r="K12" s="83">
         <v>8.52E-4</v>
       </c>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="117" t="s">
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="132" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="20">
         <v>5000000</v>
       </c>
-      <c r="Q12" s="119">
+      <c r="Q12" s="127">
         <v>16</v>
       </c>
       <c r="R12" s="14">
@@ -4610,11 +4222,11 @@
         <f>(U12-T12)/T12</f>
         <v>-0.14775922040229825</v>
       </c>
-      <c r="W12" s="55">
+      <c r="W12" s="52">
         <f>T12-R12</f>
         <v>845.38984357050288</v>
       </c>
-      <c r="X12" s="55">
+      <c r="X12" s="52">
         <f>U12-S12</f>
         <v>735.34012060227371</v>
       </c>
@@ -4624,52 +4236,52 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="112"/>
-      <c r="B13" s="114" t="s">
+      <c r="A13" s="124"/>
+      <c r="B13" s="117" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="14">
         <v>256260</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="58">
         <v>1521.0777361329999</v>
       </c>
       <c r="E13" s="14">
         <v>255550</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="60">
         <v>1507.692314403</v>
       </c>
-      <c r="G13" s="81">
+      <c r="G13" s="78">
         <v>2019</v>
       </c>
-      <c r="H13" s="82">
+      <c r="H13" s="79">
         <v>184.31041300000001</v>
       </c>
-      <c r="I13" s="82">
+      <c r="I13" s="79">
         <f t="shared" si="0"/>
         <v>1.3273483346964607</v>
       </c>
-      <c r="J13" s="82">
+      <c r="J13" s="79">
         <v>887.944525</v>
       </c>
-      <c r="K13" s="83">
+      <c r="K13" s="80">
         <v>1.2999999999999999E-4</v>
       </c>
       <c r="L13">
         <f>AVERAGE(G13:G17)</f>
         <v>1711</v>
       </c>
-      <c r="M13" s="107">
+      <c r="M13" s="104">
         <f>AVERAGE(I13:I17)</f>
         <v>1.8207687569419839</v>
       </c>
-      <c r="N13" s="67"/>
-      <c r="O13" s="118"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="133"/>
       <c r="P13" s="20">
         <v>10000000</v>
       </c>
-      <c r="Q13" s="120"/>
+      <c r="Q13" s="134"/>
       <c r="R13" s="14">
         <f>STDEV(F23:F27)</f>
         <v>87.239534372093019</v>
@@ -4690,11 +4302,11 @@
         <f>(U13-T13)/T13</f>
         <v>4.9101269910327053E-2</v>
       </c>
-      <c r="W13" s="55">
+      <c r="W13" s="52">
         <f t="shared" ref="W13:W15" si="1">T13-R13</f>
         <v>1266.6342865577071</v>
       </c>
-      <c r="X13" s="55">
+      <c r="X13" s="52">
         <f>U13-S13</f>
         <v>1277.7346890873096</v>
       </c>
@@ -4704,8 +4316,8 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="112"/>
-      <c r="B14" s="115"/>
+      <c r="A14" s="124"/>
+      <c r="B14" s="118"/>
       <c r="C14" s="11">
         <v>256261</v>
       </c>
@@ -4715,35 +4327,35 @@
       <c r="E14" s="11">
         <v>255552</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="49">
         <v>2077.297463376</v>
       </c>
-      <c r="G14" s="78">
+      <c r="G14" s="75">
         <v>1737</v>
       </c>
-      <c r="H14" s="79">
+      <c r="H14" s="76">
         <v>117.829229</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
         <v>2.0825851691473645</v>
       </c>
-      <c r="J14" s="79">
+      <c r="J14" s="76">
         <v>464.29400399999997</v>
       </c>
-      <c r="K14" s="80">
+      <c r="K14" s="77">
         <v>7.76E-4</v>
       </c>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="117" t="s">
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="132" t="s">
         <v>9</v>
       </c>
       <c r="P14" s="20">
         <v>5000000</v>
       </c>
-      <c r="Q14" s="119">
+      <c r="Q14" s="127">
         <v>16</v>
       </c>
       <c r="R14" s="14">
@@ -4766,11 +4378,11 @@
         <f>(U14-T14)/T14</f>
         <v>0.54312687242677571</v>
       </c>
-      <c r="W14" s="55">
+      <c r="W14" s="52">
         <f t="shared" si="1"/>
         <v>392.10447437183575</v>
       </c>
-      <c r="X14" s="55">
+      <c r="X14" s="52">
         <f t="shared" ref="X14:X15" si="3">U14-S14</f>
         <v>634.84121472562401</v>
       </c>
@@ -4780,45 +4392,45 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="112"/>
-      <c r="B15" s="115"/>
+      <c r="A15" s="124"/>
+      <c r="B15" s="118"/>
       <c r="C15" s="11">
         <v>256262</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="59">
         <v>841.37466472899996</v>
       </c>
       <c r="E15" s="11">
         <v>255555</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="61">
         <v>2116.3700223239998</v>
       </c>
-      <c r="G15" s="81">
+      <c r="G15" s="78">
         <v>1525</v>
       </c>
-      <c r="H15" s="82">
+      <c r="H15" s="79">
         <v>96.624724799999996</v>
       </c>
-      <c r="I15" s="82">
+      <c r="I15" s="79">
         <f t="shared" si="0"/>
         <v>1.8125100076446803</v>
       </c>
-      <c r="J15" s="82">
+      <c r="J15" s="79">
         <v>469.514634</v>
       </c>
-      <c r="K15" s="83">
+      <c r="K15" s="80">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="116"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="119"/>
       <c r="P15" s="21">
         <v>10000000</v>
       </c>
-      <c r="Q15" s="121"/>
-      <c r="R15" s="56">
+      <c r="Q15" s="128"/>
+      <c r="R15" s="53">
         <f>STDEV(F13:F17)</f>
         <v>266.86697739758392</v>
       </c>
@@ -4826,156 +4438,156 @@
         <f>STDEV(D13:D17)</f>
         <v>304.37237361697299</v>
       </c>
-      <c r="T15" s="59">
+      <c r="T15" s="56">
         <v>1616.87</v>
       </c>
       <c r="U15" s="27">
         <f>AVERAGE(D13:D17)</f>
         <v>976.69402295219993</v>
       </c>
-      <c r="V15" s="57">
+      <c r="V15" s="54">
         <f>(U15-T15)/T15</f>
         <v>-0.39593534238856559</v>
       </c>
-      <c r="W15" s="58">
+      <c r="W15" s="55">
         <f t="shared" si="1"/>
         <v>1350.003022602416</v>
       </c>
-      <c r="X15" s="58">
+      <c r="X15" s="55">
         <f t="shared" si="3"/>
         <v>672.32164933522699</v>
       </c>
-      <c r="Y15" s="57">
+      <c r="Y15" s="54">
         <f t="shared" si="2"/>
         <v>-0.50198507849324292</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="115"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="11">
         <v>256263</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="59">
         <v>849.31763240500004</v>
       </c>
       <c r="E16" s="11">
         <v>255560</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="61">
         <v>2092.299696092</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="78">
         <v>1657</v>
       </c>
-      <c r="H16" s="82">
+      <c r="H16" s="79">
         <v>157.71228600000001</v>
       </c>
-      <c r="I16" s="82">
+      <c r="I16" s="79">
         <f t="shared" si="0"/>
         <v>1.9509779813565131</v>
       </c>
-      <c r="J16" s="82">
+      <c r="J16" s="79">
         <v>477.70396699999998</v>
       </c>
-      <c r="K16" s="83">
+      <c r="K16" s="80">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
-      <c r="T16" s="60"/>
+      <c r="T16" s="57"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="112"/>
-      <c r="B17" s="115"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="37">
         <v>256251</v>
       </c>
       <c r="D17">
         <v>837.64055502999997</v>
       </c>
-      <c r="E17" s="87">
+      <c r="E17" s="84">
         <v>255549</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="51">
         <v>2125.5908608609998</v>
       </c>
-      <c r="G17" s="78">
+      <c r="G17" s="75">
         <v>1617</v>
       </c>
-      <c r="H17" s="79">
+      <c r="H17" s="76">
         <v>141.45728700000001</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
         <v>1.9304222918649008</v>
       </c>
-      <c r="J17" s="79">
+      <c r="J17" s="76">
         <v>459.45245399999999</v>
       </c>
-      <c r="K17" s="80">
+      <c r="K17" s="77">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="117" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="14">
         <v>256266</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="58">
         <v>775.64106832499999</v>
       </c>
       <c r="E18" s="14">
         <v>255804</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="60">
         <v>873.65599787199994</v>
       </c>
-      <c r="G18" s="88">
+      <c r="G18" s="85">
         <v>1236</v>
       </c>
-      <c r="H18" s="89">
+      <c r="H18" s="86">
         <v>82.714640599999996</v>
       </c>
-      <c r="I18" s="89">
+      <c r="I18" s="86">
         <f t="shared" si="0"/>
         <v>1.5935205734646658</v>
       </c>
-      <c r="J18" s="89">
+      <c r="J18" s="86">
         <v>577.17391299999997</v>
       </c>
-      <c r="K18" s="90">
+      <c r="K18" s="87">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="L18" s="107">
+      <c r="L18" s="104">
         <f>AVERAGE(G18:G22)</f>
         <v>1662.8</v>
       </c>
-      <c r="M18" s="107">
+      <c r="M18" s="104">
         <f>AVERAGE(I18:I22)</f>
         <v>2.2192890963180338</v>
       </c>
-      <c r="N18" s="67"/>
-      <c r="S18" s="108" t="s">
+      <c r="N18" s="64"/>
+      <c r="S18" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="109"/>
-      <c r="U18" s="110"/>
+      <c r="T18" s="130"/>
+      <c r="U18" s="131"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
-      <c r="B19" s="115"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="118"/>
       <c r="C19" s="11">
         <v>256267</v>
       </c>
@@ -4985,28 +4597,28 @@
       <c r="E19" s="11">
         <v>255805</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="49">
         <v>892.79640007700004</v>
       </c>
-      <c r="G19" s="78">
+      <c r="G19" s="75">
         <v>1932</v>
       </c>
-      <c r="H19" s="79">
+      <c r="H19" s="76">
         <v>169.05251999999999</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="0"/>
         <v>2.6293460884048305</v>
       </c>
-      <c r="J19" s="79">
+      <c r="J19" s="76">
         <v>556.79447000000005</v>
       </c>
-      <c r="K19" s="80">
+      <c r="K19" s="77">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="18" t="s">
         <v>11</v>
       </c>
@@ -5030,8 +4642,8 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
-      <c r="B20" s="115"/>
+      <c r="A20" s="124"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="11">
         <v>256268</v>
       </c>
@@ -5041,56 +4653,56 @@
       <c r="E20" s="11">
         <v>255806</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="49">
         <v>933.84901420599999</v>
       </c>
-      <c r="G20" s="78">
+      <c r="G20" s="75">
         <v>1498</v>
       </c>
-      <c r="H20" s="79">
+      <c r="H20" s="76">
         <v>96.417475199999998</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="0"/>
         <v>1.9864528809554975</v>
       </c>
-      <c r="J20" s="79">
+      <c r="J20" s="76">
         <v>572.711051</v>
       </c>
-      <c r="K20" s="80">
+      <c r="K20" s="77">
         <v>4.9909999999999998E-3</v>
       </c>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="117" t="s">
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="P20" s="119" t="s">
+      <c r="P20" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" s="119" t="s">
+      <c r="Q20" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="119">
+      <c r="R20" s="127">
         <v>1</v>
       </c>
-      <c r="S20" s="124">
+      <c r="S20" s="141">
         <f>AVERAGE(F53:F57)</f>
         <v>749.87752970099996</v>
       </c>
-      <c r="T20" s="119">
+      <c r="T20" s="127">
         <f>AVERAGE(D53:D59)</f>
         <v>3785.410978905667</v>
       </c>
-      <c r="U20" s="122">
+      <c r="U20" s="143">
         <f>(T20-S20)/S20</f>
         <v>4.0480389516605877</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
-      <c r="B21" s="115"/>
+      <c r="A21" s="124"/>
+      <c r="B21" s="118"/>
       <c r="C21" s="11">
         <v>256269</v>
       </c>
@@ -5100,39 +4712,39 @@
       <c r="E21" s="11">
         <v>255809</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="49">
         <v>881.27218973000004</v>
       </c>
-      <c r="G21" s="78">
+      <c r="G21" s="75">
         <v>2050</v>
       </c>
-      <c r="H21" s="79">
+      <c r="H21" s="76">
         <v>164.44599400000001</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="0"/>
         <v>2.7805564639218701</v>
       </c>
-      <c r="J21" s="79">
+      <c r="J21" s="76">
         <v>560.20988699999998</v>
       </c>
-      <c r="K21" s="80">
+      <c r="K21" s="77">
         <v>1.8441890000000001</v>
       </c>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="120"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="125"/>
-      <c r="T21" s="120"/>
-      <c r="U21" s="123"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="134"/>
+      <c r="Q21" s="140"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="142"/>
+      <c r="T21" s="134"/>
+      <c r="U21" s="144"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="112"/>
-      <c r="B22" s="116"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="16">
         <v>256264</v>
       </c>
@@ -5142,329 +4754,329 @@
       <c r="E22" s="16">
         <v>255792</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="50">
         <v>830.76432543299995</v>
       </c>
-      <c r="G22" s="84">
+      <c r="G22" s="81">
         <v>1598</v>
       </c>
-      <c r="H22" s="85">
+      <c r="H22" s="82">
         <v>126.614862</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="0"/>
         <v>2.1065694748433059</v>
       </c>
-      <c r="J22" s="85">
+      <c r="J22" s="82">
         <v>570.57916799999998</v>
       </c>
-      <c r="K22" s="86">
+      <c r="K22" s="83">
         <v>5.6470000000000001E-3</v>
       </c>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="119" t="s">
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="119">
+      <c r="Q22" s="140"/>
+      <c r="R22" s="127">
         <v>1</v>
       </c>
-      <c r="S22" s="124">
+      <c r="S22" s="141">
         <f>AVERAGE(F48:F52)</f>
         <v>135.39791187040001</v>
       </c>
-      <c r="T22" s="119">
+      <c r="T22" s="127">
         <f>AVERAGE(D48:D52)</f>
         <v>1863.9799308686001</v>
       </c>
-      <c r="U22" s="122">
+      <c r="U22" s="143">
         <f>(T22-S22)/S22</f>
         <v>12.766681517605397</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
-      <c r="B23" s="114" t="s">
+      <c r="A23" s="124"/>
+      <c r="B23" s="117" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="14">
         <v>256270</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="58">
         <v>1621.0954491320001</v>
       </c>
       <c r="E23" s="14">
         <v>255598</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="60">
         <v>1243.7553363019999</v>
       </c>
-      <c r="G23" s="81">
+      <c r="G23" s="78">
         <v>1718</v>
       </c>
-      <c r="H23" s="82">
+      <c r="H23" s="79">
         <v>138.17795000000001</v>
       </c>
-      <c r="I23" s="82">
+      <c r="I23" s="79">
         <f t="shared" si="0"/>
         <v>1.0597772024589216</v>
       </c>
-      <c r="J23" s="82">
+      <c r="J23" s="79">
         <v>556.79447000000005</v>
       </c>
-      <c r="K23" s="83">
+      <c r="K23" s="80">
         <v>3.7281949999999999</v>
       </c>
-      <c r="L23" s="107">
+      <c r="L23" s="104">
         <f>AVERAGE(G23:G27)</f>
         <v>1774.2</v>
       </c>
-      <c r="M23" s="107">
+      <c r="M23" s="104">
         <f>AVERAGE(I23:I27)</f>
         <v>1.2554125938162231</v>
       </c>
-      <c r="N23" s="67"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="120"/>
-      <c r="Q23" s="120"/>
-      <c r="R23" s="120"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="120"/>
-      <c r="U23" s="123"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="133"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="142"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="144"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
-      <c r="B24" s="115"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="118"/>
       <c r="C24" s="11">
         <v>256273</v>
       </c>
-      <c r="D24" s="62">
+      <c r="D24" s="59">
         <v>1497.754833982</v>
       </c>
       <c r="E24" s="11">
         <v>255600</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="61">
         <v>1309.7376001390001</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G24" s="78">
         <v>1960</v>
       </c>
-      <c r="H24" s="82">
+      <c r="H24" s="79">
         <v>211.74929299999999</v>
       </c>
-      <c r="I24" s="82">
+      <c r="I24" s="79">
         <f t="shared" si="0"/>
         <v>1.308625387500205</v>
       </c>
-      <c r="J24" s="82">
+      <c r="J24" s="79">
         <v>1121.0221100000001</v>
       </c>
-      <c r="K24" s="83">
+      <c r="K24" s="80">
         <v>3.595208</v>
       </c>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="117" t="s">
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="119" t="s">
+      <c r="P24" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="Q24" s="119" t="s">
+      <c r="Q24" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="R24" s="119">
+      <c r="R24" s="127">
         <v>16</v>
       </c>
-      <c r="S24" s="124">
+      <c r="S24" s="141">
         <f>AVERAGE(F3:F7)</f>
         <v>576.85754647079989</v>
       </c>
-      <c r="T24" s="119">
+      <c r="T24" s="127">
         <f>AVERAGE(D3:D7)</f>
         <v>573.80427061739999</v>
       </c>
-      <c r="U24" s="122">
+      <c r="U24" s="143">
         <f>(T24-S24)/S24</f>
         <v>-5.2929460177469486E-3</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="112"/>
-      <c r="B25" s="115"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="118"/>
       <c r="C25" s="11">
         <v>256276</v>
       </c>
-      <c r="D25" s="62">
+      <c r="D25" s="59">
         <v>1404.322463324</v>
       </c>
       <c r="E25" s="11">
         <v>255603</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="61">
         <v>1472.8958422410001</v>
       </c>
-      <c r="G25" s="81">
+      <c r="G25" s="78">
         <v>1819</v>
       </c>
-      <c r="H25" s="82">
+      <c r="H25" s="79">
         <v>149.64965100000001</v>
       </c>
-      <c r="I25" s="82">
+      <c r="I25" s="79">
         <f t="shared" si="0"/>
         <v>1.2952865509923324</v>
       </c>
-      <c r="J25" s="82">
+      <c r="J25" s="79">
         <v>1029.4042099999999</v>
       </c>
-      <c r="K25" s="83">
+      <c r="K25" s="80">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="121"/>
-      <c r="R25" s="121"/>
-      <c r="S25" s="126"/>
-      <c r="T25" s="121"/>
-      <c r="U25" s="123"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="145"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="144"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
-      <c r="B26" s="115"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="118"/>
       <c r="C26" s="11">
         <v>256277</v>
       </c>
-      <c r="D26" s="62">
+      <c r="D26" s="59">
         <v>1304.407381969</v>
       </c>
       <c r="E26" s="11">
         <v>255606</v>
       </c>
-      <c r="F26" s="64">
+      <c r="F26" s="61">
         <v>1343.365918854</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="78">
         <v>1903</v>
       </c>
-      <c r="H26" s="82">
+      <c r="H26" s="79">
         <v>201.82580400000001</v>
       </c>
-      <c r="I26" s="82">
+      <c r="I26" s="79">
         <f t="shared" si="0"/>
         <v>1.458900054005694</v>
       </c>
-      <c r="J26" s="82">
+      <c r="J26" s="79">
         <v>976.72198700000001</v>
       </c>
-      <c r="K26" s="83">
+      <c r="K26" s="80">
         <v>6.1749999999999999E-3</v>
       </c>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="113"/>
-      <c r="B27" s="116"/>
+      <c r="A27" s="125"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="16">
         <v>256265</v>
       </c>
-      <c r="D27" s="71">
+      <c r="D27" s="68">
         <v>1274.173595772</v>
       </c>
       <c r="E27" s="16">
         <v>255597</v>
       </c>
-      <c r="F27" s="91">
+      <c r="F27" s="88">
         <v>1399.614407113</v>
       </c>
-      <c r="G27" s="81">
+      <c r="G27" s="78">
         <v>1471</v>
       </c>
-      <c r="H27" s="82">
+      <c r="H27" s="79">
         <v>100.396767</v>
       </c>
-      <c r="I27" s="82">
+      <c r="I27" s="79">
         <f t="shared" si="0"/>
         <v>1.1544737741239617</v>
       </c>
-      <c r="J27" s="82">
+      <c r="J27" s="79">
         <v>410.87337300000002</v>
       </c>
-      <c r="K27" s="83">
+      <c r="K27" s="80">
         <v>3.046017</v>
       </c>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
       <c r="O27" s="24"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="127"/>
+      <c r="P27" s="138"/>
+      <c r="Q27" s="138"/>
+      <c r="R27" s="138"/>
+      <c r="S27" s="138"/>
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="128" t="s">
+      <c r="A28" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="117" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="8">
         <v>255648</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="58">
         <v>269.82526947600002</v>
       </c>
       <c r="E28" s="14">
         <v>255635</v>
       </c>
-      <c r="F28" s="73">
+      <c r="F28" s="70">
         <v>252.13807260600001</v>
       </c>
-      <c r="G28" s="88">
+      <c r="G28" s="85">
         <v>25424</v>
       </c>
-      <c r="H28" s="89">
+      <c r="H28" s="86">
         <v>53.798136399999997</v>
       </c>
-      <c r="I28" s="89">
+      <c r="I28" s="86">
         <f t="shared" si="0"/>
         <v>94.223939994105606</v>
       </c>
-      <c r="J28" s="89">
+      <c r="J28" s="86">
         <v>160.434224</v>
       </c>
-      <c r="K28" s="90">
+      <c r="K28" s="87">
         <v>8.7399999999999999E-4</v>
       </c>
-      <c r="L28" s="107">
+      <c r="L28" s="104">
         <f>AVERAGE(G28:G32)</f>
         <v>25769.599999999999</v>
       </c>
-      <c r="M28" s="107">
+      <c r="M28" s="104">
         <f>AVERAGE(I28:I32)</f>
         <v>95.088967829596214</v>
       </c>
       <c r="O28" s="24"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="127"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="138"/>
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="129"/>
-      <c r="B29" s="115"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="118"/>
       <c r="C29" s="11">
         <v>255649</v>
       </c>
@@ -5474,29 +5086,29 @@
       <c r="E29" s="11">
         <v>255636</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="49">
         <v>250.893022992</v>
       </c>
-      <c r="G29" s="78">
+      <c r="G29" s="75">
         <v>23412</v>
       </c>
-      <c r="H29" s="79">
+      <c r="H29" s="76">
         <v>61.668591800000002</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="0"/>
         <v>86.674617727010499</v>
       </c>
-      <c r="J29" s="79">
+      <c r="J29" s="76">
         <v>157.515199</v>
       </c>
-      <c r="K29" s="80">
+      <c r="K29" s="77">
         <v>1.5499999999999999E-3</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="129"/>
-      <c r="B30" s="115"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="118"/>
       <c r="C30" s="11">
         <v>255650</v>
       </c>
@@ -5506,29 +5118,29 @@
       <c r="E30" s="11">
         <v>255637</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="49">
         <v>246.083892346</v>
       </c>
-      <c r="G30" s="78">
+      <c r="G30" s="75">
         <v>27250</v>
       </c>
-      <c r="H30" s="79">
+      <c r="H30" s="76">
         <v>48.402076700000002</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="0"/>
         <v>100.33018645068069</v>
       </c>
-      <c r="J30" s="79">
+      <c r="J30" s="76">
         <v>159.11362700000001</v>
       </c>
-      <c r="K30" s="80">
+      <c r="K30" s="77">
         <v>8.5400000000000005E-4</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="129"/>
-      <c r="B31" s="115"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="118"/>
       <c r="C31" s="11">
         <v>255651</v>
       </c>
@@ -5538,29 +5150,29 @@
       <c r="E31" s="11">
         <v>255638</v>
       </c>
-      <c r="F31" s="52">
+      <c r="F31" s="49">
         <v>252.76314758999999</v>
       </c>
-      <c r="G31" s="78">
+      <c r="G31" s="75">
         <v>25531</v>
       </c>
-      <c r="H31" s="79">
+      <c r="H31" s="76">
         <v>52.625476800000001</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="0"/>
         <v>93.714612923887856</v>
       </c>
-      <c r="J31" s="79">
+      <c r="J31" s="76">
         <v>159.23238499999999</v>
       </c>
-      <c r="K31" s="80">
+      <c r="K31" s="77">
         <v>8.0400000000000003E-4</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="129"/>
-      <c r="B32" s="116"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="16">
         <v>255647</v>
       </c>
@@ -5570,73 +5182,73 @@
       <c r="E32" s="16">
         <v>255634</v>
       </c>
-      <c r="F32" s="53">
+      <c r="F32" s="50">
         <v>247.98302081599999</v>
       </c>
-      <c r="G32" s="84">
+      <c r="G32" s="81">
         <v>27231</v>
       </c>
-      <c r="H32" s="85">
+      <c r="H32" s="82">
         <v>56.608626800000003</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="0"/>
         <v>100.50148205229641</v>
       </c>
-      <c r="J32" s="85">
+      <c r="J32" s="82">
         <v>159.50080700000001</v>
       </c>
-      <c r="K32" s="86">
+      <c r="K32" s="83">
         <v>9.1500000000000001E-4</v>
       </c>
       <c r="X32" s="1"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="129"/>
-      <c r="B33" s="114" t="s">
+      <c r="A33" s="121"/>
+      <c r="B33" s="117" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="1">
         <v>255653</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="58">
         <v>407.29377142200002</v>
       </c>
       <c r="E33" s="14">
         <v>255640</v>
       </c>
-      <c r="F33" s="74">
+      <c r="F33" s="71">
         <v>372.39318635400002</v>
       </c>
-      <c r="G33" s="88">
+      <c r="G33" s="85">
         <v>11326</v>
       </c>
-      <c r="H33" s="89">
+      <c r="H33" s="86">
         <v>45.269123499999999</v>
       </c>
-      <c r="I33" s="89">
+      <c r="I33" s="86">
         <f t="shared" si="0"/>
         <v>27.807938138747154</v>
       </c>
-      <c r="J33" s="89">
+      <c r="J33" s="86">
         <v>245.00538399999999</v>
       </c>
-      <c r="K33" s="90">
+      <c r="K33" s="87">
         <v>2.9E-5</v>
       </c>
-      <c r="L33" s="107">
+      <c r="L33" s="104">
         <f>AVERAGE(G33:G37)</f>
         <v>15676.2</v>
       </c>
-      <c r="M33" s="107">
+      <c r="M33" s="104">
         <f>AVERAGE(I33:I37)</f>
         <v>37.783262082152376</v>
       </c>
       <c r="X33" s="22"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="129"/>
-      <c r="B34" s="115"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="118"/>
       <c r="C34" s="11">
         <v>255654</v>
       </c>
@@ -5649,27 +5261,27 @@
       <c r="F34" s="3">
         <v>439.497678092</v>
       </c>
-      <c r="G34" s="78">
+      <c r="G34" s="75">
         <v>11212</v>
       </c>
-      <c r="H34" s="79">
+      <c r="H34" s="76">
         <v>28.0818394</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="0"/>
         <v>27.201287657516897</v>
       </c>
-      <c r="J34" s="79">
+      <c r="J34" s="76">
         <v>270.04297000000003</v>
       </c>
-      <c r="K34" s="80">
+      <c r="K34" s="77">
         <v>2.5099999999999998E-4</v>
       </c>
       <c r="X34" s="1"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="129"/>
-      <c r="B35" s="115"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="118"/>
       <c r="C35" s="11">
         <v>255655</v>
       </c>
@@ -5679,30 +5291,30 @@
       <c r="E35" s="11">
         <v>255642</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="49">
         <v>437.43166639100002</v>
       </c>
-      <c r="G35" s="78">
+      <c r="G35" s="75">
         <v>16452</v>
       </c>
-      <c r="H35" s="79">
+      <c r="H35" s="76">
         <v>22.234570900000001</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="0"/>
         <v>40.445060817891793</v>
       </c>
-      <c r="J35" s="79">
+      <c r="J35" s="76">
         <v>255.22477599999999</v>
       </c>
-      <c r="K35" s="80">
+      <c r="K35" s="77">
         <v>1.66E-4</v>
       </c>
       <c r="X35" s="1"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="129"/>
-      <c r="B36" s="115"/>
+      <c r="A36" s="121"/>
+      <c r="B36" s="118"/>
       <c r="C36" s="11">
         <v>255656</v>
       </c>
@@ -5712,30 +5324,30 @@
       <c r="E36" s="11">
         <v>255643</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="49">
         <v>448.95963416799998</v>
       </c>
-      <c r="G36" s="78">
+      <c r="G36" s="75">
         <v>10270</v>
       </c>
-      <c r="H36" s="79">
+      <c r="H36" s="76">
         <v>37.467402700000001</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="0"/>
         <v>24.1426332217458</v>
       </c>
-      <c r="J36" s="79">
+      <c r="J36" s="76">
         <v>259.19104299999998</v>
       </c>
-      <c r="K36" s="80">
+      <c r="K36" s="77">
         <v>1.75E-4</v>
       </c>
       <c r="X36" s="1"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="130"/>
-      <c r="B37" s="116"/>
+      <c r="A37" s="122"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="16">
         <v>255652</v>
       </c>
@@ -5745,75 +5357,75 @@
       <c r="E37" s="16">
         <v>255639</v>
       </c>
-      <c r="F37" s="53">
+      <c r="F37" s="50">
         <v>442.59682931999998</v>
       </c>
-      <c r="G37" s="84">
+      <c r="G37" s="81">
         <v>29121</v>
       </c>
-      <c r="H37" s="85">
+      <c r="H37" s="82">
         <v>15.4866703</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="0"/>
         <v>69.319390574860208</v>
       </c>
-      <c r="J37" s="85">
+      <c r="J37" s="82">
         <v>300.72000300000002</v>
       </c>
-      <c r="K37" s="86">
+      <c r="K37" s="83">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="X37" s="1"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="129" t="s">
+      <c r="A38" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="115" t="s">
+      <c r="B38" s="118" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="1">
         <v>255658</v>
       </c>
-      <c r="D38" s="65">
+      <c r="D38" s="62">
         <v>1197.0079491290001</v>
       </c>
       <c r="E38" s="38">
         <v>255789</v>
       </c>
-      <c r="F38" s="74">
+      <c r="F38" s="71">
         <v>1338.871185063</v>
       </c>
-      <c r="G38" s="88">
+      <c r="G38" s="85">
         <v>50070</v>
       </c>
-      <c r="H38" s="89">
+      <c r="H38" s="86">
         <v>283.18366600000002</v>
       </c>
-      <c r="I38" s="89">
+      <c r="I38" s="86">
         <f t="shared" si="0"/>
         <v>41.829296151653224</v>
       </c>
-      <c r="J38" s="89">
+      <c r="J38" s="86">
         <v>1022.01055</v>
       </c>
-      <c r="K38" s="90">
+      <c r="K38" s="87">
         <v>7.6449999999999999E-3</v>
       </c>
       <c r="L38">
         <f>AVERAGE(G38:G42)</f>
         <v>50390</v>
       </c>
-      <c r="M38" s="107">
+      <c r="M38" s="104">
         <f>AVERAGE(I38:I42)</f>
         <v>37.31438753349137</v>
       </c>
       <c r="X38" s="1"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="129"/>
-      <c r="B39" s="115"/>
+      <c r="A39" s="121"/>
+      <c r="B39" s="118"/>
       <c r="C39" s="11">
         <v>255659</v>
       </c>
@@ -5823,30 +5435,30 @@
       <c r="E39" s="11">
         <v>255793</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="49">
         <v>1459.236696294</v>
       </c>
-      <c r="G39" s="78">
+      <c r="G39" s="75">
         <v>48892</v>
       </c>
-      <c r="H39" s="79">
+      <c r="H39" s="76">
         <v>340.20551599999999</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="0"/>
         <v>35.436934535615769</v>
       </c>
-      <c r="J39" s="79">
+      <c r="J39" s="76">
         <v>1206.9276500000001</v>
       </c>
-      <c r="K39" s="80">
+      <c r="K39" s="77">
         <v>7.901E-3</v>
       </c>
       <c r="X39" s="1"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="129"/>
-      <c r="B40" s="115"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="118"/>
       <c r="C40" s="11">
         <v>255661</v>
       </c>
@@ -5856,30 +5468,30 @@
       <c r="E40" s="11">
         <v>255794</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F40" s="49">
         <v>1377.4540213549999</v>
       </c>
-      <c r="G40" s="78">
+      <c r="G40" s="75">
         <v>49096</v>
       </c>
-      <c r="H40" s="79">
+      <c r="H40" s="76">
         <v>315.34167600000001</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="0"/>
         <v>36.617268386590212</v>
       </c>
-      <c r="J40" s="79">
+      <c r="J40" s="76">
         <v>1167.7325000000001</v>
       </c>
-      <c r="K40" s="80">
+      <c r="K40" s="77">
         <v>7.3010000000000002E-3</v>
       </c>
       <c r="X40" s="1"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="129"/>
-      <c r="B41" s="115"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="118"/>
       <c r="C41" s="11">
         <v>255662</v>
       </c>
@@ -5889,30 +5501,30 @@
       <c r="E41" s="11">
         <v>255795</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="49">
         <v>1354.675156064</v>
       </c>
-      <c r="G41" s="78">
+      <c r="G41" s="75">
         <v>51236</v>
       </c>
-      <c r="H41" s="79">
+      <c r="H41" s="76">
         <v>338.76245599999999</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="0"/>
         <v>35.47246567309044</v>
       </c>
-      <c r="J41" s="79">
+      <c r="J41" s="76">
         <v>1273.3359399999999</v>
       </c>
-      <c r="K41" s="80">
+      <c r="K41" s="77">
         <v>7.3749999999999996E-3</v>
       </c>
       <c r="X41" s="1"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="129"/>
-      <c r="B42" s="116"/>
+      <c r="A42" s="121"/>
+      <c r="B42" s="119"/>
       <c r="C42" s="16">
         <v>255657</v>
       </c>
@@ -5922,73 +5534,73 @@
       <c r="E42" s="16">
         <v>255788</v>
       </c>
-      <c r="F42" s="53">
+      <c r="F42" s="50">
         <v>1353.0792231400001</v>
       </c>
-      <c r="G42" s="84">
+      <c r="G42" s="81">
         <v>52656</v>
       </c>
-      <c r="H42" s="85">
+      <c r="H42" s="82">
         <v>327.31515999999999</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" si="0"/>
         <v>37.215972920507198</v>
       </c>
-      <c r="J42" s="85">
+      <c r="J42" s="82">
         <v>1243.14338</v>
       </c>
-      <c r="K42" s="86">
+      <c r="K42" s="83">
         <v>7.2420000000000002E-3</v>
       </c>
       <c r="X42" s="1"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="129"/>
-      <c r="B43" s="114" t="s">
+      <c r="A43" s="121"/>
+      <c r="B43" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="1">
         <v>255663</v>
       </c>
-      <c r="D43" s="61">
+      <c r="D43" s="58">
         <v>731.03284059500004</v>
       </c>
       <c r="E43" s="14">
         <v>255796</v>
       </c>
-      <c r="F43" s="74">
+      <c r="F43" s="71">
         <v>881.88570066399996</v>
       </c>
-      <c r="G43" s="88">
+      <c r="G43" s="85">
         <v>5109</v>
       </c>
-      <c r="H43" s="89">
+      <c r="H43" s="86">
         <v>79.318800400000001</v>
       </c>
-      <c r="I43" s="89">
+      <c r="I43" s="86">
         <f t="shared" si="0"/>
         <v>6.9887421142963948</v>
       </c>
-      <c r="J43" s="89">
+      <c r="J43" s="86">
         <v>431.42707799999999</v>
       </c>
-      <c r="K43" s="90">
+      <c r="K43" s="87">
         <v>3.4770000000000001E-3</v>
       </c>
-      <c r="L43" s="107">
+      <c r="L43" s="104">
         <f>AVERAGE(G43:G47)</f>
         <v>6397.2</v>
       </c>
-      <c r="M43" s="107">
+      <c r="M43" s="104">
         <f>AVERAGE(I43:I47)</f>
         <v>7.4786432144873043</v>
       </c>
       <c r="X43" s="1"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="129"/>
-      <c r="B44" s="115" t="s">
+      <c r="A44" s="121"/>
+      <c r="B44" s="118" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="11">
@@ -6000,31 +5612,31 @@
       <c r="E44" s="11">
         <v>255797</v>
       </c>
-      <c r="F44" s="52">
+      <c r="F44" s="49">
         <v>927.67842166599996</v>
       </c>
-      <c r="G44" s="78">
+      <c r="G44" s="75">
         <v>9687</v>
       </c>
-      <c r="H44" s="79">
+      <c r="H44" s="76">
         <v>100.211072</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="0"/>
         <v>11.133227465725284</v>
       </c>
-      <c r="J44" s="79">
+      <c r="J44" s="76">
         <v>589.52569300000005</v>
       </c>
-      <c r="K44" s="80">
+      <c r="K44" s="77">
         <v>1.4319999999999999E-3</v>
       </c>
-      <c r="L44" s="107"/>
+      <c r="L44" s="104"/>
       <c r="X44" s="1"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="129"/>
-      <c r="B45" s="115"/>
+      <c r="A45" s="121"/>
+      <c r="B45" s="118"/>
       <c r="C45" s="11">
         <v>255665</v>
       </c>
@@ -6034,31 +5646,31 @@
       <c r="E45" s="11">
         <v>255798</v>
       </c>
-      <c r="F45" s="52">
+      <c r="F45" s="49">
         <v>879.36127409999995</v>
       </c>
-      <c r="G45" s="78">
+      <c r="G45" s="75">
         <v>5678</v>
       </c>
-      <c r="H45" s="79">
+      <c r="H45" s="76">
         <v>106.392115</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="0"/>
         <v>6.5343686828586645</v>
       </c>
-      <c r="J45" s="79">
+      <c r="J45" s="76">
         <v>554.34385999999995</v>
       </c>
-      <c r="K45" s="80">
+      <c r="K45" s="77">
         <v>0.19572400000000001</v>
       </c>
-      <c r="L45" s="107"/>
+      <c r="L45" s="104"/>
       <c r="X45" s="1"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="129"/>
-      <c r="B46" s="115"/>
+      <c r="A46" s="121"/>
+      <c r="B46" s="118"/>
       <c r="C46" s="11">
         <v>255666</v>
       </c>
@@ -6068,30 +5680,30 @@
       <c r="E46" s="11">
         <v>255799</v>
       </c>
-      <c r="F46" s="52">
+      <c r="F46" s="49">
         <v>863.84367863800003</v>
       </c>
-      <c r="G46" s="78">
+      <c r="G46" s="75">
         <v>7367</v>
       </c>
-      <c r="H46" s="79">
+      <c r="H46" s="76">
         <v>106.56268300000001</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="0"/>
         <v>8.3145598018622042</v>
       </c>
-      <c r="J46" s="79">
+      <c r="J46" s="76">
         <v>567.177187</v>
       </c>
-      <c r="K46" s="80">
+      <c r="K46" s="77">
         <v>6.1209999999999997E-3</v>
       </c>
-      <c r="L46" s="107"/>
+      <c r="L46" s="104"/>
     </row>
     <row r="47" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="130"/>
-      <c r="B47" s="116"/>
+      <c r="A47" s="122"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="16">
         <v>255660</v>
       </c>
@@ -6101,110 +5713,110 @@
       <c r="E47" s="16">
         <v>255790</v>
       </c>
-      <c r="F47" s="53">
+      <c r="F47" s="50">
         <v>849.54252122299999</v>
       </c>
-      <c r="G47" s="84">
+      <c r="G47" s="81">
         <v>4145</v>
       </c>
-      <c r="H47" s="85">
+      <c r="H47" s="82">
         <v>111.91974</v>
       </c>
       <c r="I47" s="5">
         <f t="shared" si="0"/>
         <v>4.4223180076939803</v>
       </c>
-      <c r="J47" s="85">
+      <c r="J47" s="82">
         <v>580.60432200000002</v>
       </c>
-      <c r="K47" s="86">
+      <c r="K47" s="83">
         <v>9.9139999999999992E-3</v>
       </c>
-      <c r="L47" s="107"/>
+      <c r="L47" s="104"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="118" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="38">
         <v>256292</v>
       </c>
-      <c r="D48" s="65">
+      <c r="D48" s="62">
         <v>1814.070653386</v>
       </c>
       <c r="E48" s="38">
         <v>255625</v>
       </c>
-      <c r="F48" s="66">
+      <c r="F48" s="63">
         <v>137.651922762</v>
       </c>
-      <c r="G48" s="88">
+      <c r="G48" s="85">
         <v>4004954</v>
       </c>
-      <c r="H48" s="89">
+      <c r="H48" s="86">
         <v>30.241167600000001</v>
       </c>
-      <c r="I48" s="89">
+      <c r="I48" s="86">
         <f t="shared" si="0"/>
         <v>2207.7166578515953</v>
       </c>
-      <c r="J48" s="89">
+      <c r="J48" s="86">
         <v>54.196835</v>
       </c>
-      <c r="K48" s="90">
+      <c r="K48" s="87">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="L48" s="107">
+      <c r="L48" s="104">
         <f>AVERAGE(G48:G52)</f>
         <v>4461737.8</v>
       </c>
-      <c r="M48" s="107">
+      <c r="M48" s="104">
         <f>AVERAGE(I48:I52)</f>
         <v>2396.085942481669</v>
       </c>
-      <c r="N48" s="67"/>
+      <c r="N48" s="64"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="112"/>
-      <c r="B49" s="115"/>
+      <c r="A49" s="124"/>
+      <c r="B49" s="118"/>
       <c r="C49" s="11">
         <v>256293</v>
       </c>
-      <c r="D49" s="62">
+      <c r="D49" s="59">
         <v>1970.4270751399999</v>
       </c>
       <c r="E49" s="11">
         <v>255626</v>
       </c>
-      <c r="F49" s="64">
+      <c r="F49" s="61">
         <v>134.666475762</v>
       </c>
-      <c r="G49" s="81">
+      <c r="G49" s="78">
         <v>4471556</v>
       </c>
-      <c r="H49" s="82">
+      <c r="H49" s="79">
         <v>37.056837799999997</v>
       </c>
-      <c r="I49" s="82">
+      <c r="I49" s="79">
         <f t="shared" si="0"/>
         <v>2269.3334132562572</v>
       </c>
-      <c r="J49" s="82">
+      <c r="J49" s="79">
         <v>63.473013000000002</v>
       </c>
-      <c r="K49" s="83">
+      <c r="K49" s="80">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="L49" s="107"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="67"/>
+      <c r="L49" s="104"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="112"/>
-      <c r="B50" s="115"/>
+      <c r="A50" s="124"/>
+      <c r="B50" s="118"/>
       <c r="C50" s="11">
         <v>256294</v>
       </c>
@@ -6214,32 +5826,32 @@
       <c r="E50" s="11">
         <v>255627</v>
       </c>
-      <c r="F50" s="52">
+      <c r="F50" s="49">
         <v>132.560485185</v>
       </c>
-      <c r="G50" s="78">
+      <c r="G50" s="75">
         <v>4732785</v>
       </c>
-      <c r="H50" s="79">
+      <c r="H50" s="76">
         <v>31.568690799999999</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="0"/>
         <v>2553.3278373323055</v>
       </c>
-      <c r="J50" s="79">
+      <c r="J50" s="76">
         <v>59.141922000000001</v>
       </c>
-      <c r="K50" s="80">
+      <c r="K50" s="77">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="L50" s="107"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
+      <c r="L50" s="104"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="64"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="112"/>
-      <c r="B51" s="115"/>
+      <c r="A51" s="124"/>
+      <c r="B51" s="118"/>
       <c r="C51" s="11">
         <v>256295</v>
       </c>
@@ -6249,32 +5861,32 @@
       <c r="E51" s="11">
         <v>255628</v>
       </c>
-      <c r="F51" s="52">
+      <c r="F51" s="49">
         <v>134.34190815100001</v>
       </c>
-      <c r="G51" s="78">
+      <c r="G51" s="75">
         <v>4166475</v>
       </c>
-      <c r="H51" s="79">
+      <c r="H51" s="76">
         <v>32.974711800000001</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="0"/>
         <v>2230.5051384308481</v>
       </c>
-      <c r="J51" s="79">
+      <c r="J51" s="76">
         <v>63.285894999999996</v>
       </c>
-      <c r="K51" s="80">
+      <c r="K51" s="77">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="L51" s="107"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
+      <c r="L51" s="104"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="112"/>
-      <c r="B52" s="116"/>
+      <c r="A52" s="124"/>
+      <c r="B52" s="119"/>
       <c r="C52" s="16">
         <v>256291</v>
       </c>
@@ -6284,32 +5896,32 @@
       <c r="E52" s="16">
         <v>255624</v>
       </c>
-      <c r="F52" s="53">
+      <c r="F52" s="50">
         <v>137.76876749199999</v>
       </c>
-      <c r="G52" s="84">
+      <c r="G52" s="81">
         <v>4932919</v>
       </c>
-      <c r="H52" s="85">
+      <c r="H52" s="82">
         <v>32.974711800000001</v>
       </c>
       <c r="I52" s="5">
         <f t="shared" si="0"/>
         <v>2719.5466655373375</v>
       </c>
-      <c r="J52" s="85">
+      <c r="J52" s="82">
         <v>54.819175999999999</v>
       </c>
-      <c r="K52" s="86">
+      <c r="K52" s="83">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="L52" s="107"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="67"/>
+      <c r="L52" s="104"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="112"/>
-      <c r="B53" s="114" t="s">
+      <c r="A53" s="124"/>
+      <c r="B53" s="117" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="14">
@@ -6321,38 +5933,38 @@
       <c r="E53" s="14">
         <v>255630</v>
       </c>
-      <c r="F53" s="51">
+      <c r="F53" s="48">
         <v>749.81907214900002</v>
       </c>
-      <c r="G53" s="78">
+      <c r="G53" s="75">
         <v>4710449</v>
       </c>
-      <c r="H53" s="79">
+      <c r="H53" s="76">
         <v>176.17625799999999</v>
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
         <v>1492.3672204427135</v>
       </c>
-      <c r="J53" s="79">
+      <c r="J53" s="76">
         <v>336.69899400000003</v>
       </c>
-      <c r="K53" s="80">
+      <c r="K53" s="77">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="L53" s="107">
+      <c r="L53" s="104">
         <f>AVERAGE(G53:G59)</f>
         <v>3117342.0850415067</v>
       </c>
-      <c r="M53" s="107">
+      <c r="M53" s="104">
         <f>AVERAGE(I53:I57)</f>
         <v>1482.6025717266543</v>
       </c>
-      <c r="N53" s="67"/>
+      <c r="N53" s="64"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="112"/>
-      <c r="B54" s="115"/>
+      <c r="A54" s="124"/>
+      <c r="B54" s="118"/>
       <c r="C54" s="11">
         <v>256298</v>
       </c>
@@ -6362,67 +5974,67 @@
       <c r="E54" s="11">
         <v>255631</v>
       </c>
-      <c r="F54" s="52">
+      <c r="F54" s="49">
         <v>749.956432737</v>
       </c>
-      <c r="G54" s="78">
+      <c r="G54" s="75">
         <v>6050766</v>
       </c>
-      <c r="H54" s="79">
+      <c r="H54" s="76">
         <v>153.60909599999999</v>
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
         <v>2625.6386639256084</v>
       </c>
-      <c r="J54" s="79">
+      <c r="J54" s="76">
         <v>295.73632199999997</v>
       </c>
-      <c r="K54" s="80">
+      <c r="K54" s="77">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="L54" s="107"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
+      <c r="L54" s="104"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="112"/>
-      <c r="B55" s="115"/>
+      <c r="A55" s="124"/>
+      <c r="B55" s="118"/>
       <c r="C55" s="11">
         <v>256299</v>
       </c>
-      <c r="D55" s="102">
+      <c r="D55" s="99">
         <v>8582.4291595310006</v>
       </c>
-      <c r="E55" s="69">
+      <c r="E55" s="66">
         <v>255632</v>
       </c>
-      <c r="F55" s="70">
+      <c r="F55" s="67">
         <v>749.85005693200003</v>
       </c>
-      <c r="G55" s="103">
+      <c r="G55" s="100">
         <v>3391252</v>
       </c>
-      <c r="H55" s="104">
+      <c r="H55" s="101">
         <v>104.64633600000001</v>
       </c>
-      <c r="I55" s="106">
+      <c r="I55" s="103">
         <f t="shared" si="0"/>
         <v>395.13894457653993</v>
       </c>
-      <c r="J55" s="104">
+      <c r="J55" s="101">
         <v>205.55655100000001</v>
       </c>
-      <c r="K55" s="105">
+      <c r="K55" s="102">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="L55" s="107"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="67"/>
+      <c r="L55" s="104"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="112"/>
-      <c r="B56" s="115"/>
+      <c r="A56" s="124"/>
+      <c r="B56" s="118"/>
       <c r="C56" s="11">
         <v>256300</v>
       </c>
@@ -6432,52 +6044,52 @@
       <c r="E56" s="11">
         <v>255633</v>
       </c>
-      <c r="F56" s="52">
+      <c r="F56" s="49">
         <v>749.82936412599997</v>
       </c>
-      <c r="G56" s="78">
+      <c r="G56" s="75">
         <v>4546124</v>
       </c>
-      <c r="H56" s="79">
+      <c r="H56" s="76">
         <v>164.41897700000001</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
         <v>1417.2654579617558</v>
       </c>
-      <c r="J56" s="79">
+      <c r="J56" s="76">
         <v>324.25098400000002</v>
       </c>
-      <c r="K56" s="80">
+      <c r="K56" s="77">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="L56" s="67"/>
-      <c r="M56" s="67"/>
-      <c r="N56" s="67"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
     </row>
     <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="113"/>
-      <c r="B57" s="115"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="118"/>
       <c r="C57" s="1">
         <v>256296</v>
       </c>
       <c r="D57" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="95">
+      <c r="E57" s="92">
         <v>255629</v>
       </c>
-      <c r="F57" s="96">
+      <c r="F57" s="93">
         <v>749.93272256099999</v>
       </c>
-      <c r="G57" s="97"/>
-      <c r="H57" s="98"/>
-      <c r="I57" s="98"/>
-      <c r="J57" s="98"/>
-      <c r="K57" s="99"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="96"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B58" s="114" t="s">
+      <c r="B58" s="117" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="14">
@@ -6491,7 +6103,7 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="116"/>
+      <c r="B59" s="119"/>
       <c r="C59" s="16">
         <v>256335</v>
       </c>
@@ -6523,18 +6135,18 @@
     </row>
     <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="132" t="s">
+      <c r="A64" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="133"/>
-      <c r="C64" s="133"/>
-      <c r="D64" s="134"/>
+      <c r="B64" s="136"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="137"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="111" t="s">
+      <c r="A65" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="114" t="s">
+      <c r="B65" s="117" t="s">
         <v>23</v>
       </c>
       <c r="C65" s="14">
@@ -6547,8 +6159,8 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="112"/>
-      <c r="B66" s="115"/>
+      <c r="A66" s="124"/>
+      <c r="B66" s="118"/>
       <c r="C66" s="11">
         <v>256310</v>
       </c>
@@ -6559,8 +6171,8 @@
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="112"/>
-      <c r="B67" s="115"/>
+      <c r="A67" s="124"/>
+      <c r="B67" s="118"/>
       <c r="C67" s="11">
         <v>256311</v>
       </c>
@@ -6571,8 +6183,8 @@
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="112"/>
-      <c r="B68" s="115"/>
+      <c r="A68" s="124"/>
+      <c r="B68" s="118"/>
       <c r="C68" s="11">
         <v>256312</v>
       </c>
@@ -6583,8 +6195,8 @@
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="112"/>
-      <c r="B69" s="116"/>
+      <c r="A69" s="124"/>
+      <c r="B69" s="119"/>
       <c r="C69" s="16">
         <v>256301</v>
       </c>
@@ -6595,8 +6207,8 @@
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="112"/>
-      <c r="B70" s="114" t="s">
+      <c r="A70" s="124"/>
+      <c r="B70" s="117" t="s">
         <v>24</v>
       </c>
       <c r="C70" s="14">
@@ -6609,8 +6221,8 @@
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="112"/>
-      <c r="B71" s="115"/>
+      <c r="A71" s="124"/>
+      <c r="B71" s="118"/>
       <c r="C71" s="11">
         <v>256330</v>
       </c>
@@ -6621,8 +6233,8 @@
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="112"/>
-      <c r="B72" s="115"/>
+      <c r="A72" s="124"/>
+      <c r="B72" s="118"/>
       <c r="C72" s="11">
         <v>256331</v>
       </c>
@@ -6633,8 +6245,8 @@
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="112"/>
-      <c r="B73" s="115"/>
+      <c r="A73" s="124"/>
+      <c r="B73" s="118"/>
       <c r="C73" s="11">
         <v>256332</v>
       </c>
@@ -6645,8 +6257,8 @@
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="113"/>
-      <c r="B74" s="116"/>
+      <c r="A74" s="125"/>
+      <c r="B74" s="119"/>
       <c r="C74" s="16">
         <v>256326</v>
       </c>
@@ -6657,10 +6269,10 @@
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="111" t="s">
+      <c r="A75" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="114" t="s">
+      <c r="B75" s="117" t="s">
         <v>25</v>
       </c>
       <c r="C75" s="14">
@@ -6673,8 +6285,8 @@
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="112"/>
-      <c r="B76" s="115"/>
+      <c r="A76" s="124"/>
+      <c r="B76" s="118"/>
       <c r="C76" s="11">
         <v>256334</v>
       </c>
@@ -6685,8 +6297,8 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="112"/>
-      <c r="B77" s="115"/>
+      <c r="A77" s="124"/>
+      <c r="B77" s="118"/>
       <c r="C77" s="11">
         <v>256336</v>
       </c>
@@ -6697,8 +6309,8 @@
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="112"/>
-      <c r="B78" s="115"/>
+      <c r="A78" s="124"/>
+      <c r="B78" s="118"/>
       <c r="C78" s="11">
         <v>256337</v>
       </c>
@@ -6709,8 +6321,8 @@
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="112"/>
-      <c r="B79" s="116"/>
+      <c r="A79" s="124"/>
+      <c r="B79" s="119"/>
       <c r="C79" s="16">
         <v>256328</v>
       </c>
@@ -6721,8 +6333,8 @@
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="112"/>
-      <c r="B80" s="114" t="s">
+      <c r="A80" s="124"/>
+      <c r="B80" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C80" s="14">
@@ -6735,8 +6347,8 @@
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="112"/>
-      <c r="B81" s="115" t="s">
+      <c r="A81" s="124"/>
+      <c r="B81" s="118" t="s">
         <v>33</v>
       </c>
       <c r="C81" s="11">
@@ -6749,8 +6361,8 @@
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="112"/>
-      <c r="B82" s="115"/>
+      <c r="A82" s="124"/>
+      <c r="B82" s="118"/>
       <c r="C82" s="11">
         <v>256340</v>
       </c>
@@ -6761,8 +6373,8 @@
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="112"/>
-      <c r="B83" s="115"/>
+      <c r="A83" s="124"/>
+      <c r="B83" s="118"/>
       <c r="C83" s="11">
         <v>256341</v>
       </c>
@@ -6773,8 +6385,8 @@
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="113"/>
-      <c r="B84" s="116"/>
+      <c r="A84" s="125"/>
+      <c r="B84" s="119"/>
       <c r="C84" s="16">
         <v>256329</v>
       </c>
@@ -6786,20 +6398,40 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:A74"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="A75:A84"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="R22:R23"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="S27:S28"/>
     <mergeCell ref="A28:A37"/>
@@ -6816,40 +6448,20 @@
     <mergeCell ref="T20:T21"/>
     <mergeCell ref="U20:U21"/>
     <mergeCell ref="B23:B27"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A75:A84"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="B80:B84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6870,24 +6482,24 @@
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="68" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="65" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" style="65" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="131"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6905,17 +6517,17 @@
       <c r="E2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="108" t="s">
+      <c r="O2" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="110"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="131"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="117" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="14">
@@ -6927,7 +6539,7 @@
       <c r="E3" s="15">
         <v>574.14340716200002</v>
       </c>
-      <c r="J3" s="100" t="s">
+      <c r="J3" s="97" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="14" t="s">
@@ -6953,8 +6565,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
-      <c r="B4" s="115"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="11">
         <v>255726</v>
       </c>
@@ -6964,16 +6576,16 @@
       <c r="E4" s="19">
         <v>577.346727805</v>
       </c>
-      <c r="J4" s="138" t="s">
+      <c r="J4" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="119" t="s">
+      <c r="K4" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="119">
+      <c r="L4" s="127">
         <v>10</v>
       </c>
-      <c r="M4" s="119">
+      <c r="M4" s="127">
         <v>22</v>
       </c>
       <c r="N4" s="11" t="s">
@@ -6993,8 +6605,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
-      <c r="B5" s="115"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="118"/>
       <c r="C5" s="11">
         <v>255728</v>
       </c>
@@ -7004,10 +6616,10 @@
       <c r="E5" s="19">
         <v>576.43512899699999</v>
       </c>
-      <c r="J5" s="140"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
       <c r="N5" s="11" t="s">
         <v>30</v>
       </c>
@@ -7025,8 +6637,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="115"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="11">
         <v>255729</v>
       </c>
@@ -7036,16 +6648,16 @@
       <c r="E6" s="19">
         <v>579.40429448099997</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="119" t="s">
+      <c r="K6" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="119">
+      <c r="L6" s="127">
         <v>10</v>
       </c>
-      <c r="M6" s="119">
+      <c r="M6" s="127">
         <v>22</v>
       </c>
       <c r="N6" s="11" t="s">
@@ -7065,8 +6677,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
-      <c r="B7" s="116"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="16">
         <v>255723</v>
       </c>
@@ -7076,10 +6688,10 @@
       <c r="E7" s="17">
         <v>576.95817390900004</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
       <c r="N7" s="16" t="s">
         <v>30</v>
       </c>
@@ -7097,10 +6709,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="117" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="14">
@@ -7115,8 +6727,8 @@
       <c r="M8" s="23"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
-      <c r="B9" s="115"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="11">
         <v>255673</v>
       </c>
@@ -7129,8 +6741,8 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
-      <c r="B10" s="115"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="11">
         <v>255674</v>
       </c>
@@ -7140,19 +6752,19 @@
       <c r="E10" s="19">
         <v>1552.2494301019999</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="108" t="s">
+      <c r="M10" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="109"/>
-      <c r="O10" s="110"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="131"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="118"/>
       <c r="C11" s="11">
         <v>255675</v>
       </c>
@@ -7162,7 +6774,7 @@
       <c r="E11" s="19">
         <v>1608.427053052</v>
       </c>
-      <c r="J11" s="100" t="s">
+      <c r="J11" s="97" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="14" t="s">
@@ -7183,8 +6795,8 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="124"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="16">
         <v>255669</v>
       </c>
@@ -7194,13 +6806,13 @@
       <c r="E12" s="17">
         <v>1632.490843883</v>
       </c>
-      <c r="J12" s="138" t="s">
+      <c r="J12" s="150" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="20">
         <v>5000000</v>
       </c>
-      <c r="L12" s="119">
+      <c r="L12" s="127">
         <v>16</v>
       </c>
       <c r="M12" s="26">
@@ -7218,8 +6830,8 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
-      <c r="B13" s="114" t="s">
+      <c r="A13" s="124"/>
+      <c r="B13" s="117" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="14">
@@ -7231,11 +6843,11 @@
       <c r="E13" s="15">
         <v>374.31231366899999</v>
       </c>
-      <c r="J13" s="140"/>
+      <c r="J13" s="152"/>
       <c r="K13" s="20">
         <v>10000000</v>
       </c>
-      <c r="L13" s="120"/>
+      <c r="L13" s="134"/>
       <c r="M13" s="26">
         <f>AVERAGE(E18:E22)</f>
         <v>1353.8738209298001</v>
@@ -7250,8 +6862,8 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
-      <c r="B14" s="115"/>
+      <c r="A14" s="124"/>
+      <c r="B14" s="118"/>
       <c r="C14" s="11">
         <v>255670</v>
       </c>
@@ -7261,13 +6873,13 @@
       <c r="E14" s="19">
         <v>417.44163908600001</v>
       </c>
-      <c r="J14" s="138" t="s">
+      <c r="J14" s="150" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="20">
         <v>5000000</v>
       </c>
-      <c r="L14" s="119">
+      <c r="L14" s="127">
         <v>16</v>
       </c>
       <c r="M14" s="26">
@@ -7284,8 +6896,8 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="112"/>
-      <c r="B15" s="115"/>
+      <c r="A15" s="124"/>
+      <c r="B15" s="118"/>
       <c r="C15" s="11">
         <v>255671</v>
       </c>
@@ -7295,11 +6907,11 @@
       <c r="E15" s="19">
         <v>438.08886448499999</v>
       </c>
-      <c r="J15" s="139"/>
+      <c r="J15" s="155"/>
       <c r="K15" s="21">
         <v>10000000</v>
       </c>
-      <c r="L15" s="121"/>
+      <c r="L15" s="128"/>
       <c r="M15" s="27">
         <f>AVERAGE(E8:E12)</f>
         <v>1616.8707725613999</v>
@@ -7314,8 +6926,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="115"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="11">
         <v>255672</v>
       </c>
@@ -7327,8 +6939,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="113"/>
-      <c r="B17" s="116"/>
+      <c r="A17" s="125"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="16">
         <v>255667</v>
       </c>
@@ -7340,10 +6952,10 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="117" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="14">
@@ -7355,15 +6967,15 @@
       <c r="E18" s="15">
         <v>1243.7553363019999</v>
       </c>
-      <c r="N18" s="108" t="s">
+      <c r="N18" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="109"/>
-      <c r="P18" s="110"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="131"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
-      <c r="B19" s="115"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="118"/>
       <c r="C19" s="11">
         <v>255687</v>
       </c>
@@ -7373,7 +6985,7 @@
       <c r="E19" s="19">
         <v>1309.7376001390001</v>
       </c>
-      <c r="J19" s="100" t="s">
+      <c r="J19" s="97" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="14" t="s">
@@ -7396,8 +7008,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
-      <c r="B20" s="115"/>
+      <c r="A20" s="124"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="11">
         <v>255688</v>
       </c>
@@ -7407,34 +7019,34 @@
       <c r="E20" s="19">
         <v>1472.8958422410001</v>
       </c>
-      <c r="J20" s="138" t="s">
+      <c r="J20" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="119" t="s">
+      <c r="K20" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="119" t="s">
+      <c r="L20" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="119">
+      <c r="M20" s="127">
         <v>1</v>
       </c>
-      <c r="N20" s="124">
+      <c r="N20" s="141">
         <f>AVERAGE(E53:E57)</f>
         <v>749.87752970099996</v>
       </c>
-      <c r="O20" s="119">
+      <c r="O20" s="127">
         <f>AVERAGE(D53:D57)</f>
         <v>8075.3479543951998</v>
       </c>
-      <c r="P20" s="122">
+      <c r="P20" s="143">
         <f>(O20-N20)/N20</f>
         <v>9.7688890979505665</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
-      <c r="B21" s="115"/>
+      <c r="A21" s="124"/>
+      <c r="B21" s="118"/>
       <c r="C21" s="11">
         <v>255689</v>
       </c>
@@ -7444,17 +7056,17 @@
       <c r="E21" s="19">
         <v>1343.365918854</v>
       </c>
-      <c r="J21" s="145"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="123"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="144"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="112"/>
-      <c r="B22" s="116"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="16">
         <v>255685</v>
       </c>
@@ -7464,30 +7076,30 @@
       <c r="E22" s="17">
         <v>1399.614407113</v>
       </c>
-      <c r="J22" s="145"/>
-      <c r="K22" s="119" t="s">
+      <c r="J22" s="151"/>
+      <c r="K22" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="131"/>
-      <c r="M22" s="119">
+      <c r="L22" s="140"/>
+      <c r="M22" s="127">
         <v>1</v>
       </c>
-      <c r="N22" s="124">
+      <c r="N22" s="141">
         <f>AVERAGE(E48:E52)</f>
         <v>135.39791187040001</v>
       </c>
-      <c r="O22" s="119">
+      <c r="O22" s="127">
         <f>AVERAGE(D48:D52)</f>
         <v>4944.1436785696005</v>
       </c>
-      <c r="P22" s="122">
+      <c r="P22" s="143">
         <f>(O22-N22)/N22</f>
         <v>35.515656779862525</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
-      <c r="B23" s="114" t="s">
+      <c r="A23" s="124"/>
+      <c r="B23" s="117" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="14">
@@ -7499,17 +7111,17 @@
       <c r="E23" s="15">
         <v>873.65599787199994</v>
       </c>
-      <c r="J23" s="140"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="123"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="142"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="144"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
-      <c r="B24" s="115"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="118"/>
       <c r="C24" s="11">
         <v>255678</v>
       </c>
@@ -7519,34 +7131,34 @@
       <c r="E24" s="19">
         <v>892.79640007700004</v>
       </c>
-      <c r="J24" s="138" t="s">
+      <c r="J24" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="119" t="s">
+      <c r="K24" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="119" t="s">
+      <c r="L24" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="M24" s="119">
+      <c r="M24" s="127">
         <v>16</v>
       </c>
-      <c r="N24" s="124">
+      <c r="N24" s="141">
         <f>AVERAGE(E3:E7)</f>
         <v>576.85754647079989</v>
       </c>
-      <c r="O24" s="119">
+      <c r="O24" s="127">
         <f>AVERAGE(D3:D7)</f>
         <v>572.71763656300004</v>
       </c>
-      <c r="P24" s="122">
+      <c r="P24" s="143">
         <f>(O24-N24)/N24</f>
         <v>-7.1766590090182802E-3</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="112"/>
-      <c r="B25" s="115"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="118"/>
       <c r="C25" s="11">
         <v>255681</v>
       </c>
@@ -7556,17 +7168,17 @@
       <c r="E25" s="19">
         <v>933.84901420599999</v>
       </c>
-      <c r="J25" s="139"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="123"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="144"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
-      <c r="B26" s="115"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="118"/>
       <c r="C26" s="11">
         <v>255684</v>
       </c>
@@ -7578,8 +7190,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="113"/>
-      <c r="B27" s="116"/>
+      <c r="A27" s="125"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="16">
         <v>255676</v>
       </c>
@@ -7589,18 +7201,18 @@
       <c r="E27" s="17">
         <v>830.76432543299995</v>
       </c>
-      <c r="J27" s="101"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="127"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="111" t="s">
+      <c r="A28" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="117" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="8">
@@ -7612,15 +7224,15 @@
       <c r="E28" s="9">
         <v>252.13807260600001</v>
       </c>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="112"/>
-      <c r="B29" s="115"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="118"/>
       <c r="C29" s="11">
         <v>255649</v>
       </c>
@@ -7632,8 +7244,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="112"/>
-      <c r="B30" s="115"/>
+      <c r="A30" s="124"/>
+      <c r="B30" s="118"/>
       <c r="C30" s="11">
         <v>255650</v>
       </c>
@@ -7645,8 +7257,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="112"/>
-      <c r="B31" s="115"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="118"/>
       <c r="C31" s="11">
         <v>255651</v>
       </c>
@@ -7658,8 +7270,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="112"/>
-      <c r="B32" s="116"/>
+      <c r="A32" s="124"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="16">
         <v>255647</v>
       </c>
@@ -7672,8 +7284,8 @@
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="112"/>
-      <c r="B33" s="114" t="s">
+      <c r="A33" s="124"/>
+      <c r="B33" s="117" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="1">
@@ -7688,8 +7300,8 @@
       <c r="S33" s="22"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="112"/>
-      <c r="B34" s="115"/>
+      <c r="A34" s="124"/>
+      <c r="B34" s="118"/>
       <c r="C34" s="11">
         <v>255654</v>
       </c>
@@ -7699,7 +7311,7 @@
       <c r="E34" s="19">
         <v>439.497678092</v>
       </c>
-      <c r="J34" s="72"/>
+      <c r="J34" s="69"/>
       <c r="K34" s="39"/>
       <c r="L34" s="39"/>
       <c r="M34" s="39"/>
@@ -7709,8 +7321,8 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="112"/>
-      <c r="B35" s="115"/>
+      <c r="A35" s="124"/>
+      <c r="B35" s="118"/>
       <c r="C35" s="11">
         <v>255655</v>
       </c>
@@ -7723,8 +7335,8 @@
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="112"/>
-      <c r="B36" s="115"/>
+      <c r="A36" s="124"/>
+      <c r="B36" s="118"/>
       <c r="C36" s="11">
         <v>255656</v>
       </c>
@@ -7737,8 +7349,8 @@
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="113"/>
-      <c r="B37" s="116"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="16">
         <v>255652</v>
       </c>
@@ -7751,10 +7363,10 @@
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="111" t="s">
+      <c r="A38" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="114" t="s">
+      <c r="B38" s="117" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="1">
@@ -7769,8 +7381,8 @@
       <c r="S38" s="1"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="112"/>
-      <c r="B39" s="115"/>
+      <c r="A39" s="124"/>
+      <c r="B39" s="118"/>
       <c r="C39" s="11">
         <v>255659</v>
       </c>
@@ -7783,8 +7395,8 @@
       <c r="S39" s="1"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="112"/>
-      <c r="B40" s="115"/>
+      <c r="A40" s="124"/>
+      <c r="B40" s="118"/>
       <c r="C40" s="11">
         <v>255661</v>
       </c>
@@ -7797,8 +7409,8 @@
       <c r="S40" s="1"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="112"/>
-      <c r="B41" s="115"/>
+      <c r="A41" s="124"/>
+      <c r="B41" s="118"/>
       <c r="C41" s="11">
         <v>255662</v>
       </c>
@@ -7811,8 +7423,8 @@
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="112"/>
-      <c r="B42" s="116"/>
+      <c r="A42" s="124"/>
+      <c r="B42" s="119"/>
       <c r="C42" s="16">
         <v>255657</v>
       </c>
@@ -7825,8 +7437,8 @@
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="112"/>
-      <c r="B43" s="114" t="s">
+      <c r="A43" s="124"/>
+      <c r="B43" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="1">
@@ -7841,8 +7453,8 @@
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="112"/>
-      <c r="B44" s="115" t="s">
+      <c r="A44" s="124"/>
+      <c r="B44" s="118" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="11">
@@ -7857,8 +7469,8 @@
       <c r="S44" s="1"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="112"/>
-      <c r="B45" s="115"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="118"/>
       <c r="C45" s="11">
         <v>255665</v>
       </c>
@@ -7868,12 +7480,12 @@
       <c r="E45" s="19">
         <v>879.36127409999995</v>
       </c>
-      <c r="J45" s="79"/>
+      <c r="J45" s="76"/>
       <c r="S45" s="1"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="112"/>
-      <c r="B46" s="115"/>
+      <c r="A46" s="124"/>
+      <c r="B46" s="118"/>
       <c r="C46" s="11">
         <v>255666</v>
       </c>
@@ -7885,8 +7497,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="113"/>
-      <c r="B47" s="116"/>
+      <c r="A47" s="125"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="16">
         <v>255660</v>
       </c>
@@ -7898,10 +7510,10 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="111" t="s">
+      <c r="A48" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="117" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="14">
@@ -7915,8 +7527,8 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="112"/>
-      <c r="B49" s="115"/>
+      <c r="A49" s="124"/>
+      <c r="B49" s="118"/>
       <c r="C49" s="11">
         <v>256022</v>
       </c>
@@ -7928,8 +7540,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="112"/>
-      <c r="B50" s="115"/>
+      <c r="A50" s="124"/>
+      <c r="B50" s="118"/>
       <c r="C50" s="11">
         <v>256023</v>
       </c>
@@ -7941,8 +7553,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="112"/>
-      <c r="B51" s="115"/>
+      <c r="A51" s="124"/>
+      <c r="B51" s="118"/>
       <c r="C51" s="11">
         <v>256024</v>
       </c>
@@ -7954,8 +7566,8 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="112"/>
-      <c r="B52" s="116"/>
+      <c r="A52" s="124"/>
+      <c r="B52" s="119"/>
       <c r="C52" s="16">
         <v>256020</v>
       </c>
@@ -7967,8 +7579,8 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="112"/>
-      <c r="B53" s="114" t="s">
+      <c r="A53" s="124"/>
+      <c r="B53" s="117" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="14">
@@ -7982,8 +7594,8 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="112"/>
-      <c r="B54" s="115"/>
+      <c r="A54" s="124"/>
+      <c r="B54" s="118"/>
       <c r="C54" s="11">
         <v>256017</v>
       </c>
@@ -7995,8 +7607,8 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="112"/>
-      <c r="B55" s="115"/>
+      <c r="A55" s="124"/>
+      <c r="B55" s="118"/>
       <c r="C55" s="11">
         <v>256018</v>
       </c>
@@ -8008,8 +7620,8 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="112"/>
-      <c r="B56" s="115"/>
+      <c r="A56" s="124"/>
+      <c r="B56" s="118"/>
       <c r="C56" s="11">
         <v>256019</v>
       </c>
@@ -8021,8 +7633,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="113"/>
-      <c r="B57" s="116"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="119"/>
       <c r="C57" s="5">
         <v>256015</v>
       </c>
@@ -8035,20 +7647,20 @@
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="142" t="s">
+      <c r="A61" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="143"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="143"/>
-      <c r="E61" s="143"/>
-      <c r="F61" s="143"/>
-      <c r="G61" s="143"/>
-      <c r="H61" s="143"/>
-      <c r="I61" s="143"/>
-      <c r="J61" s="143"/>
-      <c r="K61" s="143"/>
-      <c r="L61" s="144"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="148"/>
+      <c r="H61" s="148"/>
+      <c r="I61" s="148"/>
+      <c r="J61" s="148"/>
+      <c r="K61" s="148"/>
+      <c r="L61" s="149"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -8064,15 +7676,15 @@
       <c r="E62" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="146" t="s">
+      <c r="F62" s="76"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="I62" s="146"/>
-      <c r="J62" s="146"/>
-      <c r="K62" s="146"/>
-      <c r="L62" s="147"/>
+      <c r="I62" s="153"/>
+      <c r="J62" s="153"/>
+      <c r="K62" s="153"/>
+      <c r="L62" s="154"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -8086,15 +7698,15 @@
         <v>551.42986604500004</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79" t="s">
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="I63" s="79" t="s">
+      <c r="I63" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J63" s="79" t="s">
+      <c r="J63" s="76" t="s">
         <v>3</v>
       </c>
       <c r="K63" s="1" t="s">
@@ -8112,15 +7724,15 @@
         <v>555.09889702099997</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79" t="s">
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="I64" s="79">
+      <c r="I64" s="76">
         <v>1000000</v>
       </c>
-      <c r="J64" s="79">
+      <c r="J64" s="76">
         <v>255514</v>
       </c>
       <c r="K64" s="1">
@@ -8138,13 +7750,13 @@
         <v>551.05852855000001</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="79">
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76">
         <v>2000000</v>
       </c>
-      <c r="J65" s="79">
+      <c r="J65" s="76">
         <v>255519</v>
       </c>
       <c r="K65" s="1">
@@ -8162,15 +7774,15 @@
         <v>552.219329023</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79" t="s">
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I66" s="79">
+      <c r="I66" s="76">
         <v>1000000</v>
       </c>
-      <c r="J66" s="79">
+      <c r="J66" s="76">
         <v>255515</v>
       </c>
       <c r="K66" s="1">
@@ -8188,13 +7800,13 @@
         <v>550.18024473200001</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79">
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="76"/>
+      <c r="I67" s="76">
         <v>2000000</v>
       </c>
-      <c r="J67" s="79" t="s">
+      <c r="J67" s="76" t="s">
         <v>34</v>
       </c>
       <c r="K67" s="1" t="s">
@@ -8216,11 +7828,11 @@
         <v>518.50043765999999</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
-      <c r="I68" s="79"/>
-      <c r="J68" s="79"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="76"/>
       <c r="K68" s="1"/>
       <c r="L68" s="3"/>
     </row>
@@ -8232,11 +7844,11 @@
         <v>521.61195426500001</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="79"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="76"/>
       <c r="K69" s="1"/>
       <c r="L69" s="3"/>
     </row>
@@ -8248,11 +7860,11 @@
         <v>519.88117515299996</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="79"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="76"/>
+      <c r="I70" s="76"/>
+      <c r="J70" s="76"/>
       <c r="K70" s="1"/>
       <c r="L70" s="3"/>
     </row>
@@ -8264,11 +7876,11 @@
         <v>520.66419686999996</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
-      <c r="J71" s="79"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="76"/>
+      <c r="I71" s="76"/>
+      <c r="J71" s="76"/>
       <c r="K71" s="1"/>
       <c r="L71" s="3"/>
     </row>
@@ -8280,22 +7892,65 @@
         <v>516.83793474300001</v>
       </c>
       <c r="E72" s="5"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-      <c r="H72" s="85"/>
-      <c r="I72" s="85"/>
-      <c r="J72" s="85"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="82"/>
+      <c r="I72" s="82"/>
+      <c r="J72" s="82"/>
       <c r="K72" s="5"/>
       <c r="L72" s="6"/>
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="141"/>
-      <c r="B83" s="141"/>
-      <c r="C83" s="141"/>
+      <c r="A83" s="146"/>
+      <c r="B83" s="146"/>
+      <c r="C83" s="146"/>
       <c r="D83" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B18:B22"/>
     <mergeCell ref="N22:N23"/>
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="K20:K21"/>
@@ -8312,49 +7967,6 @@
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8373,18 +7985,18 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="137"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="158"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">

--- a/data/darshanConnector_output_6_1_analysis.xlsx
+++ b/data/darshanConnector_output_6_1_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spwalto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68350255-B7B9-4311-AE3A-B2D689545A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CFA0E9-868E-42CE-B89A-568E16C0A376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41055" yWindow="225" windowWidth="15330" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobID and Runtime - 9_14-9_15" sheetId="21" r:id="rId1"/>
@@ -1507,7 +1507,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1651,40 +1651,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="47" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="48" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1696,31 +1697,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1738,6 +1751,30 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1750,13 +1787,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1765,38 +1796,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="23" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="34" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="59" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="8" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="47" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="7" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="47" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="48" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2156,7 +2164,7 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,20 +2192,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="131"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="134"/>
       <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="122" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2214,10 +2222,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="140" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="31">
@@ -2234,8 +2242,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="166"/>
-      <c r="B4" s="118"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="135"/>
       <c r="C4" s="105">
         <v>10798127</v>
       </c>
@@ -2250,8 +2258,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="166"/>
-      <c r="B5" s="118"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="135"/>
       <c r="C5" s="105">
         <v>10798129</v>
       </c>
@@ -2266,8 +2274,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="166"/>
-      <c r="B6" s="118"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="105">
         <v>10798131</v>
       </c>
@@ -2282,8 +2290,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="166"/>
-      <c r="B7" s="118"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="135"/>
       <c r="C7" s="106">
         <v>10798133</v>
       </c>
@@ -2298,8 +2306,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="166"/>
-      <c r="B8" s="117" t="s">
+      <c r="A8" s="136"/>
+      <c r="B8" s="140" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="31">
@@ -2316,8 +2324,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="166"/>
-      <c r="B9" s="118"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="106">
         <v>10798138</v>
       </c>
@@ -2332,8 +2340,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="166"/>
-      <c r="B10" s="118"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="135"/>
       <c r="C10" s="19">
         <v>10798140</v>
       </c>
@@ -2348,8 +2356,8 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="166"/>
-      <c r="B11" s="118"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="19">
         <v>10798143</v>
       </c>
@@ -2364,8 +2372,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="167"/>
-      <c r="B12" s="119"/>
+      <c r="A12" s="139"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="116">
         <v>10798146</v>
       </c>
@@ -2380,10 +2388,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="135" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="108">
@@ -2400,8 +2408,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="166"/>
-      <c r="B14" s="118"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="105">
         <v>10813667</v>
       </c>
@@ -2416,8 +2424,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="166"/>
-      <c r="B15" s="118"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="105">
         <v>10813896</v>
       </c>
@@ -2432,8 +2440,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="166"/>
-      <c r="B16" s="118"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="105">
         <v>10814154</v>
       </c>
@@ -2453,12 +2461,12 @@
       <c r="O16" s="57"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="166"/>
-      <c r="B17" s="119"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="107">
         <v>10815103</v>
       </c>
-      <c r="D17" s="164">
+      <c r="D17" s="121">
         <v>520.07877533700002</v>
       </c>
       <c r="E17" s="16">
@@ -2471,14 +2479,22 @@
       <c r="K17"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="124"/>
-      <c r="B18" s="118" t="s">
+      <c r="A18" s="137"/>
+      <c r="B18" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
+      <c r="C18" s="108">
+        <v>10884587</v>
+      </c>
+      <c r="D18" s="114">
+        <v>747.17844005100005</v>
+      </c>
+      <c r="E18" s="114">
+        <v>10884894</v>
+      </c>
+      <c r="F18" s="114">
+        <v>848.46348706599997</v>
+      </c>
       <c r="J18"/>
       <c r="K18"/>
       <c r="N18" s="39"/>
@@ -2486,22 +2502,38 @@
       <c r="P18" s="39"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="105">
+        <v>10885222</v>
+      </c>
+      <c r="D19" s="112">
+        <v>752.81100101100003</v>
+      </c>
+      <c r="E19" s="112">
+        <v>10885527</v>
+      </c>
+      <c r="F19" s="112">
+        <v>669.48881952700003</v>
+      </c>
       <c r="J19"/>
       <c r="K19"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="124"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="105">
+        <v>10886485</v>
+      </c>
+      <c r="D20" s="112">
+        <v>904.24864997099996</v>
+      </c>
+      <c r="E20" s="112">
+        <v>10886094</v>
+      </c>
+      <c r="F20" s="112">
+        <v>1128.601788165</v>
+      </c>
       <c r="J20" s="39"/>
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
@@ -2509,12 +2541,20 @@
       <c r="N20" s="39"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="124"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="105">
+        <v>10888331</v>
+      </c>
+      <c r="D21" s="112">
+        <v>1339.432638469</v>
+      </c>
+      <c r="E21" s="112">
+        <v>10888771</v>
+      </c>
+      <c r="F21" s="112">
+        <v>872.79967607000003</v>
+      </c>
       <c r="J21" s="39"/>
       <c r="K21" s="39"/>
       <c r="L21" s="39"/>
@@ -2522,12 +2562,20 @@
       <c r="N21" s="39"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="124"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="106">
+        <v>10896430</v>
+      </c>
+      <c r="D22" s="115">
+        <v>1536.8141128990001</v>
+      </c>
+      <c r="E22" s="115">
+        <v>10896434</v>
+      </c>
+      <c r="F22" s="115">
+        <v>925.80142625300005</v>
+      </c>
       <c r="J22" s="39"/>
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
@@ -2535,10 +2583,10 @@
       <c r="N22" s="39"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="126" t="s">
+      <c r="A23" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="117" t="s">
+      <c r="B23" s="140" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="8">
@@ -2560,8 +2608,8 @@
       <c r="N23" s="39"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="121"/>
-      <c r="B24" s="118"/>
+      <c r="A24" s="142"/>
+      <c r="B24" s="135"/>
       <c r="C24" s="105">
         <v>10798095</v>
       </c>
@@ -2583,8 +2631,8 @@
       <c r="P24" s="39"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="121"/>
-      <c r="B25" s="118"/>
+      <c r="A25" s="142"/>
+      <c r="B25" s="135"/>
       <c r="C25" s="105">
         <v>10798097</v>
       </c>
@@ -2606,8 +2654,8 @@
       <c r="P25" s="39"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="121"/>
-      <c r="B26" s="118"/>
+      <c r="A26" s="142"/>
+      <c r="B26" s="135"/>
       <c r="C26" s="105">
         <v>10798099</v>
       </c>
@@ -2624,8 +2672,8 @@
       <c r="K26"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="121"/>
-      <c r="B27" s="119"/>
+      <c r="A27" s="142"/>
+      <c r="B27" s="129"/>
       <c r="C27" s="107">
         <v>10798101</v>
       </c>
@@ -2646,8 +2694,8 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="121"/>
-      <c r="B28" s="117" t="s">
+      <c r="A28" s="142"/>
+      <c r="B28" s="140" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="1">
@@ -2670,8 +2718,8 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="121"/>
-      <c r="B29" s="118"/>
+      <c r="A29" s="142"/>
+      <c r="B29" s="135"/>
       <c r="C29" s="105">
         <v>10798105</v>
       </c>
@@ -2686,8 +2734,8 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="121"/>
-      <c r="B30" s="118"/>
+      <c r="A30" s="142"/>
+      <c r="B30" s="135"/>
       <c r="C30" s="105">
         <v>10798107</v>
       </c>
@@ -2702,8 +2750,8 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
-      <c r="B31" s="118"/>
+      <c r="A31" s="142"/>
+      <c r="B31" s="135"/>
       <c r="C31" s="105">
         <v>10798109</v>
       </c>
@@ -2718,8 +2766,8 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="122"/>
-      <c r="B32" s="119"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="129"/>
       <c r="C32" s="107">
         <v>10798111</v>
       </c>
@@ -2735,10 +2783,10 @@
       <c r="X32" s="1"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="120" t="s">
+      <c r="A33" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="135" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="1">
@@ -2756,8 +2804,8 @@
       <c r="X33" s="22"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="121"/>
-      <c r="B34" s="118"/>
+      <c r="A34" s="142"/>
+      <c r="B34" s="135"/>
       <c r="C34" s="105">
         <v>10818917</v>
       </c>
@@ -2773,8 +2821,8 @@
       <c r="X34" s="1"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="121"/>
-      <c r="B35" s="118"/>
+      <c r="A35" s="142"/>
+      <c r="B35" s="135"/>
       <c r="C35" s="105">
         <v>10820312</v>
       </c>
@@ -2790,8 +2838,8 @@
       <c r="X35" s="1"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="121"/>
-      <c r="B36" s="118"/>
+      <c r="A36" s="142"/>
+      <c r="B36" s="135"/>
       <c r="C36" s="105">
         <v>10821842</v>
       </c>
@@ -2807,8 +2855,8 @@
       <c r="X36" s="1"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="121"/>
-      <c r="B37" s="119"/>
+      <c r="A37" s="142"/>
+      <c r="B37" s="129"/>
       <c r="C37" s="107">
         <v>10823748</v>
       </c>
@@ -2824,52 +2872,92 @@
       <c r="X37" s="1"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="121"/>
-      <c r="B38" s="117" t="s">
+      <c r="A38" s="142"/>
+      <c r="B38" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
+      <c r="C38" s="1">
+        <v>10879149</v>
+      </c>
+      <c r="D38" s="111">
+        <v>1247.4360863270001</v>
+      </c>
+      <c r="E38" s="111">
+        <v>10879136</v>
+      </c>
+      <c r="F38" s="111">
+        <v>1244.584974076</v>
+      </c>
       <c r="X38" s="1"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="121"/>
-      <c r="B39" s="118" t="s">
+      <c r="A39" s="142"/>
+      <c r="B39" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
+      <c r="C39" s="105">
+        <v>10879202</v>
+      </c>
+      <c r="D39" s="112">
+        <v>1237.127224971</v>
+      </c>
+      <c r="E39" s="112">
+        <v>10879185</v>
+      </c>
+      <c r="F39" s="112">
+        <v>1248.094404748</v>
+      </c>
       <c r="X39" s="1"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="121"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
+      <c r="A40" s="142"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="105">
+        <v>10879320</v>
+      </c>
+      <c r="D40" s="112">
+        <v>1234.1100577709999</v>
+      </c>
+      <c r="E40" s="112">
+        <v>10879242</v>
+      </c>
+      <c r="F40" s="112">
+        <v>1235.076863712</v>
+      </c>
       <c r="X40" s="1"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="121"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
+      <c r="A41" s="142"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="105">
+        <v>10880460</v>
+      </c>
+      <c r="D41" s="112">
+        <v>1229.341015983</v>
+      </c>
+      <c r="E41" s="112">
+        <v>10879877</v>
+      </c>
+      <c r="F41" s="112">
+        <v>1241.6528940860001</v>
+      </c>
       <c r="X41" s="1"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="122"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
+      <c r="A42" s="143"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="107">
+        <v>10883392</v>
+      </c>
+      <c r="D42" s="113">
+        <v>1390.7714812280001</v>
+      </c>
+      <c r="E42" s="113">
+        <v>10881473</v>
+      </c>
+      <c r="F42" s="113">
+        <v>1464.7545445539999</v>
+      </c>
       <c r="X42" s="1"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
@@ -2889,18 +2977,18 @@
       <c r="A45" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="129" t="s">
+      <c r="F45" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="130"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="156" t="s">
+      <c r="G45" s="133"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="J45" s="157"/>
-      <c r="K45" s="157"/>
-      <c r="L45" s="157"/>
-      <c r="M45" s="158"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="124"/>
+      <c r="L45" s="124"/>
+      <c r="M45" s="125"/>
       <c r="X45" s="1"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
@@ -2925,7 +3013,7 @@
       <c r="G46" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="30" t="s">
+      <c r="H46" s="171" t="s">
         <v>14</v>
       </c>
       <c r="I46" s="18" t="s">
@@ -2940,21 +3028,21 @@
       <c r="L46" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M46" s="30" t="s">
+      <c r="M46" s="171" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="132" t="s">
+      <c r="A47" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="127" t="s">
+      <c r="B47" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="127">
+      <c r="C47" s="126">
         <v>10</v>
       </c>
-      <c r="D47" s="127">
+      <c r="D47" s="126">
         <v>22</v>
       </c>
       <c r="E47" s="11" t="s">
@@ -2981,11 +3069,11 @@
         <v>106.48721526327319</v>
       </c>
       <c r="K47" s="26">
-        <f>F47-I47</f>
+        <f t="shared" ref="K47:L50" si="0">F47-I47</f>
         <v>1153.7243113252462</v>
       </c>
       <c r="L47" s="26">
-        <f>G47-J47</f>
+        <f t="shared" si="0"/>
         <v>1194.5415272631269</v>
       </c>
       <c r="M47" s="25">
@@ -2994,100 +3082,100 @@
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="133"/>
-      <c r="B48" s="134"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
+      <c r="A48" s="131"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
       <c r="E48" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="26" t="e">
+      <c r="F48" s="26">
         <f>AVERAGE(F38:F42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G48" s="26" t="e">
+        <v>1286.8327362351999</v>
+      </c>
+      <c r="G48" s="26">
         <f>AVERAGE(D38:D42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H48" s="25" t="e">
+        <v>1267.757173256</v>
+      </c>
+      <c r="H48" s="25">
         <f>(G48-F48)/F48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I48" s="109" t="e">
+        <v>-1.4823653799022903E-2</v>
+      </c>
+      <c r="I48" s="109">
         <f>STDEV(F38:F42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J48" s="11" t="e">
+        <v>99.5760891059805</v>
+      </c>
+      <c r="J48" s="11">
         <f>STDEV(D38:D42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K48" s="26" t="e">
-        <f>F48-I48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L48" s="26" t="e">
-        <f>G48-J48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M48" s="25" t="e">
+        <v>69.086159597694788</v>
+      </c>
+      <c r="K48" s="26">
+        <f t="shared" si="0"/>
+        <v>1187.2566471292193</v>
+      </c>
+      <c r="L48" s="26">
+        <f t="shared" si="0"/>
+        <v>1198.6710136583051</v>
+      </c>
+      <c r="M48" s="25">
         <f>(L48-K48)/K48</f>
-        <v>#DIV/0!</v>
+        <v>9.6140683286007819E-3</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="132" t="s">
+      <c r="A49" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="127" t="s">
+      <c r="B49" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="127">
+      <c r="C49" s="126">
         <v>10</v>
       </c>
-      <c r="D49" s="127">
+      <c r="D49" s="126">
         <v>22</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="26">
+      <c r="F49" s="168">
         <f>AVERAGE(F23:F27)</f>
         <v>17.437956245599999</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G49" s="168">
         <f>AVERAGE(D23:D27)</f>
         <v>13.538869263800001</v>
       </c>
-      <c r="H49" s="25">
+      <c r="H49" s="169">
         <f>(G49-F49)/F49</f>
         <v>-0.22359770416236871</v>
       </c>
-      <c r="I49" s="109">
+      <c r="I49" s="170">
         <f>STDEV(F23:F27)</f>
         <v>0.77380995639002581</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="66">
         <f>STDEV(D23:D27)</f>
         <v>0.29138119137585627</v>
       </c>
-      <c r="K49" s="26">
-        <f>F49-I49</f>
+      <c r="K49" s="168">
+        <f t="shared" si="0"/>
         <v>16.664146289209974</v>
       </c>
-      <c r="L49" s="26">
-        <f>G49-J49</f>
+      <c r="L49" s="168">
+        <f t="shared" si="0"/>
         <v>13.247488072424144</v>
       </c>
-      <c r="M49" s="25">
+      <c r="M49" s="169">
         <f>(L49-K49)/K49</f>
         <v>-0.20503049826189504</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="119"/>
-      <c r="B50" s="128"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="128"/>
+      <c r="A50" s="129"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
       <c r="E50" s="16" t="s">
         <v>30</v>
       </c>
@@ -3112,11 +3200,11 @@
         <v>0.60993894542256055</v>
       </c>
       <c r="K50" s="27">
-        <f>F50-I50</f>
+        <f t="shared" si="0"/>
         <v>19.997738209698387</v>
       </c>
       <c r="L50" s="27">
-        <f>G50-J50</f>
+        <f t="shared" si="0"/>
         <v>20.380980956777439</v>
       </c>
       <c r="M50" s="25">
@@ -3143,18 +3231,18 @@
       <c r="A53" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="129" t="s">
+      <c r="D53" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="130"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="156" t="s">
+      <c r="E53" s="133"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="157"/>
-      <c r="K53" s="158"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="124"/>
+      <c r="J53" s="124"/>
+      <c r="K53" s="125"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
@@ -3172,7 +3260,7 @@
       <c r="E54" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="159" t="s">
+      <c r="F54" s="172" t="s">
         <v>14</v>
       </c>
       <c r="G54" s="18" t="s">
@@ -3187,141 +3275,141 @@
       <c r="J54" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K54" s="30" t="s">
+      <c r="K54" s="171" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="132" t="s">
+      <c r="A55" s="128" t="s">
         <v>10</v>
       </c>
       <c r="B55" s="20">
         <v>5000000</v>
       </c>
-      <c r="C55" s="127">
+      <c r="C55" s="126">
         <v>16</v>
       </c>
-      <c r="D55" s="26">
+      <c r="D55" s="168">
         <f>AVERAGE(F13:F17)</f>
         <v>427.30034356319993</v>
       </c>
-      <c r="E55" s="26">
+      <c r="E55" s="168">
         <f>AVERAGE(D13:D17)</f>
         <v>417.22707850380004</v>
       </c>
-      <c r="F55" s="160">
+      <c r="F55" s="173">
         <f>(E55-D55)/D55</f>
         <v>-2.357420304275978E-2</v>
       </c>
-      <c r="G55" s="109">
+      <c r="G55" s="170">
         <f>STDEV(F13:F17)</f>
         <v>24.166770591911401</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H55" s="66">
         <f>STDEV(D13:D17)</f>
         <v>88.431481736936064</v>
       </c>
-      <c r="I55" s="26">
-        <f>D55-G55</f>
+      <c r="I55" s="168">
+        <f t="shared" ref="I55:J58" si="1">D55-G55</f>
         <v>403.13357297128852</v>
       </c>
-      <c r="J55" s="26">
-        <f>E55-H55</f>
+      <c r="J55" s="168">
+        <f t="shared" si="1"/>
         <v>328.79559676686398</v>
       </c>
-      <c r="K55" s="25">
+      <c r="K55" s="169">
         <f>(J55-I55)/I55</f>
         <v>-0.18440036054679809</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="133"/>
+      <c r="A56" s="131"/>
       <c r="B56" s="20">
         <v>10000000</v>
       </c>
-      <c r="C56" s="134"/>
-      <c r="D56" s="26" t="e">
+      <c r="C56" s="130"/>
+      <c r="D56" s="26">
         <f>AVERAGE(F18:F22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E56" s="26" t="e">
+        <v>889.03103941619997</v>
+      </c>
+      <c r="E56" s="26">
         <f>AVERAGE(D18:D22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F56" s="160" t="e">
+        <v>1056.0969684801998</v>
+      </c>
+      <c r="F56" s="117">
         <f>(E56-D56)/D56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G56" s="109" t="e">
+        <v>0.1879191182950227</v>
+      </c>
+      <c r="G56" s="109">
         <f>STDEV(F18:F22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H56" s="162" t="e">
+        <v>164.96528026969006</v>
+      </c>
+      <c r="H56" s="119">
         <f>STDEV(D18:D22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I56" s="26" t="e">
-        <f>D56-G56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="26" t="e">
-        <f>E56-H56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K56" s="25" t="e">
+        <v>361.19213098115506</v>
+      </c>
+      <c r="I56" s="26">
+        <f t="shared" si="1"/>
+        <v>724.06575914650989</v>
+      </c>
+      <c r="J56" s="26">
+        <f t="shared" si="1"/>
+        <v>694.90483749904479</v>
+      </c>
+      <c r="K56" s="25">
         <f>(J56-I56)/I56</f>
-        <v>#DIV/0!</v>
+        <v>-4.02738581117804E-2</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="132" t="s">
+      <c r="A57" s="128" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="20">
         <v>5000000</v>
       </c>
-      <c r="C57" s="127">
+      <c r="C57" s="126">
         <v>16</v>
       </c>
-      <c r="D57" s="26">
+      <c r="D57" s="168">
         <f>AVERAGE(F3:F7)</f>
         <v>8.2071562589999978</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="168">
         <f>AVERAGE(D3:D7)</f>
         <v>9.1739113963999994</v>
       </c>
-      <c r="F57" s="160">
+      <c r="F57" s="173">
         <f>(E57-D57)/D57</f>
         <v>0.11779416729635851</v>
       </c>
-      <c r="G57" s="109">
+      <c r="G57" s="170">
         <f>STDEV(F3:F7)</f>
         <v>1.0479974666674152</v>
       </c>
-      <c r="H57" s="162">
+      <c r="H57" s="174">
         <f>STDEV(D3:D7)</f>
         <v>1.1230030465226775</v>
       </c>
-      <c r="I57" s="26">
-        <f>D57-G57</f>
+      <c r="I57" s="168">
+        <f t="shared" si="1"/>
         <v>7.1591587923325823</v>
       </c>
-      <c r="J57" s="26">
-        <f>E57-H57</f>
+      <c r="J57" s="168">
+        <f t="shared" si="1"/>
         <v>8.0509083498773215</v>
       </c>
-      <c r="K57" s="25">
+      <c r="K57" s="169">
         <f>(J57-I57)/I57</f>
         <v>0.12456066186153013</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="119"/>
+      <c r="A58" s="129"/>
       <c r="B58" s="21">
         <v>10000000</v>
       </c>
-      <c r="C58" s="128"/>
+      <c r="C58" s="127"/>
       <c r="D58" s="27">
         <f>AVERAGE(F8:F12)</f>
         <v>11.4604963106</v>
@@ -3330,7 +3418,7 @@
         <f>AVERAGE(D8:D12)</f>
         <v>11.6772258188</v>
       </c>
-      <c r="F58" s="161">
+      <c r="F58" s="118">
         <f>(E58-D58)/D58</f>
         <v>1.8911005450919574E-2</v>
       </c>
@@ -3338,16 +3426,16 @@
         <f>STDEV(F8:F12)</f>
         <v>0.57273745839796664</v>
       </c>
-      <c r="H58" s="163">
+      <c r="H58" s="120">
         <f>STDEV(D8:D12)</f>
         <v>0.70175119582021395</v>
       </c>
       <c r="I58" s="27">
-        <f>D58-G58</f>
+        <f t="shared" si="1"/>
         <v>10.887758852202033</v>
       </c>
       <c r="J58" s="27">
-        <f>E58-H58</f>
+        <f t="shared" si="1"/>
         <v>10.975474622979787</v>
       </c>
       <c r="K58" s="25">
@@ -3551,13 +3639,8 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B42"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="A47:A48"/>
@@ -3567,19 +3650,24 @@
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
     <mergeCell ref="A23:A32"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="A33:A42"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3615,13 +3703,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="131"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="134"/>
       <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3668,17 +3756,17 @@
       <c r="O2" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="129" t="s">
+      <c r="T2" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="130"/>
-      <c r="V2" s="131"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="134"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="140" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="14">
@@ -3743,8 +3831,8 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="124"/>
-      <c r="B4" s="118"/>
+      <c r="A4" s="137"/>
+      <c r="B4" s="135"/>
       <c r="C4" s="11">
         <v>256252</v>
       </c>
@@ -3773,16 +3861,16 @@
       <c r="K4" s="77">
         <v>0</v>
       </c>
-      <c r="O4" s="132" t="s">
+      <c r="O4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="127" t="s">
+      <c r="P4" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="127">
+      <c r="Q4" s="126">
         <v>10</v>
       </c>
-      <c r="R4" s="127">
+      <c r="R4" s="126">
         <v>22</v>
       </c>
       <c r="S4" s="11" t="s">
@@ -3802,8 +3890,8 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
-      <c r="B5" s="118"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="135"/>
       <c r="C5" s="11">
         <v>256253</v>
       </c>
@@ -3832,10 +3920,10 @@
       <c r="K5" s="77">
         <v>0</v>
       </c>
-      <c r="O5" s="133"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="134"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
       <c r="S5" s="11" t="s">
         <v>30</v>
       </c>
@@ -3853,8 +3941,8 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="124"/>
-      <c r="B6" s="118"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="11">
         <v>256254</v>
       </c>
@@ -3883,16 +3971,16 @@
       <c r="K6" s="77">
         <v>0</v>
       </c>
-      <c r="O6" s="132" t="s">
+      <c r="O6" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="127" t="s">
+      <c r="P6" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="127">
+      <c r="Q6" s="126">
         <v>10</v>
       </c>
-      <c r="R6" s="127">
+      <c r="R6" s="126">
         <v>22</v>
       </c>
       <c r="S6" s="11" t="s">
@@ -3912,8 +4000,8 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="125"/>
-      <c r="B7" s="119"/>
+      <c r="A7" s="146"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="16">
         <v>256248</v>
       </c>
@@ -3942,10 +4030,10 @@
       <c r="K7" s="83">
         <v>0</v>
       </c>
-      <c r="O7" s="119"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
       <c r="S7" s="16" t="s">
         <v>30</v>
       </c>
@@ -3963,10 +4051,10 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="135" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="38">
@@ -4009,8 +4097,8 @@
       <c r="R8" s="23"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="124"/>
-      <c r="B9" s="118"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="11">
         <v>256257</v>
       </c>
@@ -4045,8 +4133,8 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="124"/>
-      <c r="B10" s="118"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="135"/>
       <c r="C10" s="11">
         <v>256258</v>
       </c>
@@ -4081,19 +4169,19 @@
       <c r="O10" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="129" t="s">
+      <c r="R10" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="130"/>
-      <c r="T10" s="131"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="134"/>
       <c r="V10" s="1"/>
       <c r="W10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="124"/>
-      <c r="B11" s="118"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="11">
         <v>256259</v>
       </c>
@@ -4160,8 +4248,8 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="124"/>
-      <c r="B12" s="118"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="135"/>
       <c r="C12" s="37">
         <v>256250</v>
       </c>
@@ -4193,13 +4281,13 @@
       <c r="L12" s="64"/>
       <c r="M12" s="64"/>
       <c r="N12" s="64"/>
-      <c r="O12" s="132" t="s">
+      <c r="O12" s="128" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="20">
         <v>5000000</v>
       </c>
-      <c r="Q12" s="127">
+      <c r="Q12" s="126">
         <v>16</v>
       </c>
       <c r="R12" s="14">
@@ -4236,8 +4324,8 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="124"/>
-      <c r="B13" s="117" t="s">
+      <c r="A13" s="137"/>
+      <c r="B13" s="140" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="14">
@@ -4277,11 +4365,11 @@
         <v>1.8207687569419839</v>
       </c>
       <c r="N13" s="64"/>
-      <c r="O13" s="133"/>
+      <c r="O13" s="131"/>
       <c r="P13" s="20">
         <v>10000000</v>
       </c>
-      <c r="Q13" s="134"/>
+      <c r="Q13" s="130"/>
       <c r="R13" s="14">
         <f>STDEV(F23:F27)</f>
         <v>87.239534372093019</v>
@@ -4316,8 +4404,8 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="124"/>
-      <c r="B14" s="118"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="11">
         <v>256261</v>
       </c>
@@ -4349,13 +4437,13 @@
       <c r="L14" s="64"/>
       <c r="M14" s="64"/>
       <c r="N14" s="64"/>
-      <c r="O14" s="132" t="s">
+      <c r="O14" s="128" t="s">
         <v>9</v>
       </c>
       <c r="P14" s="20">
         <v>5000000</v>
       </c>
-      <c r="Q14" s="127">
+      <c r="Q14" s="126">
         <v>16</v>
       </c>
       <c r="R14" s="14">
@@ -4392,8 +4480,8 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="124"/>
-      <c r="B15" s="118"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="11">
         <v>256262</v>
       </c>
@@ -4425,11 +4513,11 @@
       <c r="L15" s="64"/>
       <c r="M15" s="64"/>
       <c r="N15" s="64"/>
-      <c r="O15" s="119"/>
+      <c r="O15" s="129"/>
       <c r="P15" s="21">
         <v>10000000</v>
       </c>
-      <c r="Q15" s="128"/>
+      <c r="Q15" s="127"/>
       <c r="R15" s="53">
         <f>STDEV(F13:F17)</f>
         <v>266.86697739758392</v>
@@ -4463,8 +4551,8 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="124"/>
-      <c r="B16" s="118"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="11">
         <v>256263</v>
       </c>
@@ -4501,8 +4589,8 @@
       <c r="T16" s="57"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="124"/>
-      <c r="B17" s="118"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="135"/>
       <c r="C17" s="37">
         <v>256251</v>
       </c>
@@ -4536,10 +4624,10 @@
       <c r="N17" s="64"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="140" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="14">
@@ -4579,15 +4667,15 @@
         <v>2.2192890963180338</v>
       </c>
       <c r="N18" s="64"/>
-      <c r="S18" s="129" t="s">
+      <c r="S18" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="130"/>
-      <c r="U18" s="131"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="134"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="118"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="135"/>
       <c r="C19" s="11">
         <v>256267</v>
       </c>
@@ -4642,8 +4730,8 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="124"/>
-      <c r="B20" s="118"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="135"/>
       <c r="C20" s="11">
         <v>256268</v>
       </c>
@@ -4675,34 +4763,34 @@
       <c r="L20" s="64"/>
       <c r="M20" s="64"/>
       <c r="N20" s="64"/>
-      <c r="O20" s="132" t="s">
+      <c r="O20" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="P20" s="127" t="s">
+      <c r="P20" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" s="127" t="s">
+      <c r="Q20" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="127">
+      <c r="R20" s="126">
         <v>1</v>
       </c>
-      <c r="S20" s="141">
+      <c r="S20" s="148">
         <f>AVERAGE(F53:F57)</f>
         <v>749.87752970099996</v>
       </c>
-      <c r="T20" s="127">
+      <c r="T20" s="126">
         <f>AVERAGE(D53:D59)</f>
         <v>3785.410978905667</v>
       </c>
-      <c r="U20" s="143">
+      <c r="U20" s="150">
         <f>(T20-S20)/S20</f>
         <v>4.0480389516605877</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="124"/>
-      <c r="B21" s="118"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="135"/>
       <c r="C21" s="11">
         <v>256269</v>
       </c>
@@ -4734,17 +4822,17 @@
       <c r="L21" s="64"/>
       <c r="M21" s="64"/>
       <c r="N21" s="64"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="134"/>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="134"/>
-      <c r="S21" s="142"/>
-      <c r="T21" s="134"/>
-      <c r="U21" s="144"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="130"/>
+      <c r="S21" s="149"/>
+      <c r="T21" s="130"/>
+      <c r="U21" s="151"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="124"/>
-      <c r="B22" s="119"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="129"/>
       <c r="C22" s="16">
         <v>256264</v>
       </c>
@@ -4776,30 +4864,30 @@
       <c r="L22" s="64"/>
       <c r="M22" s="64"/>
       <c r="N22" s="64"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="127" t="s">
+      <c r="O22" s="135"/>
+      <c r="P22" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="Q22" s="140"/>
-      <c r="R22" s="127">
+      <c r="Q22" s="154"/>
+      <c r="R22" s="126">
         <v>1</v>
       </c>
-      <c r="S22" s="141">
+      <c r="S22" s="148">
         <f>AVERAGE(F48:F52)</f>
         <v>135.39791187040001</v>
       </c>
-      <c r="T22" s="127">
+      <c r="T22" s="126">
         <f>AVERAGE(D48:D52)</f>
         <v>1863.9799308686001</v>
       </c>
-      <c r="U22" s="143">
+      <c r="U22" s="150">
         <f>(T22-S22)/S22</f>
         <v>12.766681517605397</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="124"/>
-      <c r="B23" s="117" t="s">
+      <c r="A23" s="137"/>
+      <c r="B23" s="140" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="14">
@@ -4839,17 +4927,17 @@
         <v>1.2554125938162231</v>
       </c>
       <c r="N23" s="64"/>
-      <c r="O23" s="133"/>
-      <c r="P23" s="134"/>
-      <c r="Q23" s="134"/>
-      <c r="R23" s="134"/>
-      <c r="S23" s="142"/>
-      <c r="T23" s="134"/>
-      <c r="U23" s="144"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="130"/>
+      <c r="S23" s="149"/>
+      <c r="T23" s="130"/>
+      <c r="U23" s="151"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="124"/>
-      <c r="B24" s="118"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="135"/>
       <c r="C24" s="11">
         <v>256273</v>
       </c>
@@ -4881,34 +4969,34 @@
       <c r="L24" s="64"/>
       <c r="M24" s="64"/>
       <c r="N24" s="64"/>
-      <c r="O24" s="132" t="s">
+      <c r="O24" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="127" t="s">
+      <c r="P24" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="Q24" s="127" t="s">
+      <c r="Q24" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="R24" s="127">
+      <c r="R24" s="126">
         <v>16</v>
       </c>
-      <c r="S24" s="141">
+      <c r="S24" s="148">
         <f>AVERAGE(F3:F7)</f>
         <v>576.85754647079989</v>
       </c>
-      <c r="T24" s="127">
+      <c r="T24" s="126">
         <f>AVERAGE(D3:D7)</f>
         <v>573.80427061739999</v>
       </c>
-      <c r="U24" s="143">
+      <c r="U24" s="150">
         <f>(T24-S24)/S24</f>
         <v>-5.2929460177469486E-3</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="124"/>
-      <c r="B25" s="118"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="135"/>
       <c r="C25" s="11">
         <v>256276</v>
       </c>
@@ -4940,17 +5028,17 @@
       <c r="L25" s="64"/>
       <c r="M25" s="64"/>
       <c r="N25" s="64"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="128"/>
-      <c r="Q25" s="128"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="145"/>
-      <c r="T25" s="128"/>
-      <c r="U25" s="144"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="152"/>
+      <c r="T25" s="127"/>
+      <c r="U25" s="151"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="124"/>
-      <c r="B26" s="118"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="135"/>
       <c r="C26" s="11">
         <v>256277</v>
       </c>
@@ -4984,8 +5072,8 @@
       <c r="N26" s="64"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="125"/>
-      <c r="B27" s="119"/>
+      <c r="A27" s="146"/>
+      <c r="B27" s="129"/>
       <c r="C27" s="16">
         <v>256265</v>
       </c>
@@ -5018,17 +5106,17 @@
       <c r="M27" s="64"/>
       <c r="N27" s="64"/>
       <c r="O27" s="24"/>
-      <c r="P27" s="138"/>
-      <c r="Q27" s="138"/>
-      <c r="R27" s="138"/>
-      <c r="S27" s="138"/>
+      <c r="P27" s="147"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="147"/>
+      <c r="S27" s="147"/>
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="139" t="s">
+      <c r="A28" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="140" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="8">
@@ -5068,15 +5156,15 @@
         <v>95.088967829596214</v>
       </c>
       <c r="O28" s="24"/>
-      <c r="P28" s="138"/>
-      <c r="Q28" s="138"/>
-      <c r="R28" s="138"/>
-      <c r="S28" s="138"/>
+      <c r="P28" s="147"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="147"/>
+      <c r="S28" s="147"/>
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="121"/>
-      <c r="B29" s="118"/>
+      <c r="A29" s="142"/>
+      <c r="B29" s="135"/>
       <c r="C29" s="11">
         <v>255649</v>
       </c>
@@ -5107,8 +5195,8 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="121"/>
-      <c r="B30" s="118"/>
+      <c r="A30" s="142"/>
+      <c r="B30" s="135"/>
       <c r="C30" s="11">
         <v>255650</v>
       </c>
@@ -5139,8 +5227,8 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
-      <c r="B31" s="118"/>
+      <c r="A31" s="142"/>
+      <c r="B31" s="135"/>
       <c r="C31" s="11">
         <v>255651</v>
       </c>
@@ -5171,8 +5259,8 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="121"/>
-      <c r="B32" s="119"/>
+      <c r="A32" s="142"/>
+      <c r="B32" s="129"/>
       <c r="C32" s="16">
         <v>255647</v>
       </c>
@@ -5204,8 +5292,8 @@
       <c r="X32" s="1"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="121"/>
-      <c r="B33" s="117" t="s">
+      <c r="A33" s="142"/>
+      <c r="B33" s="140" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="1">
@@ -5247,8 +5335,8 @@
       <c r="X33" s="22"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="121"/>
-      <c r="B34" s="118"/>
+      <c r="A34" s="142"/>
+      <c r="B34" s="135"/>
       <c r="C34" s="11">
         <v>255654</v>
       </c>
@@ -5280,8 +5368,8 @@
       <c r="X34" s="1"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="121"/>
-      <c r="B35" s="118"/>
+      <c r="A35" s="142"/>
+      <c r="B35" s="135"/>
       <c r="C35" s="11">
         <v>255655</v>
       </c>
@@ -5313,8 +5401,8 @@
       <c r="X35" s="1"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="121"/>
-      <c r="B36" s="118"/>
+      <c r="A36" s="142"/>
+      <c r="B36" s="135"/>
       <c r="C36" s="11">
         <v>255656</v>
       </c>
@@ -5346,8 +5434,8 @@
       <c r="X36" s="1"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="122"/>
-      <c r="B37" s="119"/>
+      <c r="A37" s="143"/>
+      <c r="B37" s="129"/>
       <c r="C37" s="16">
         <v>255652</v>
       </c>
@@ -5379,10 +5467,10 @@
       <c r="X37" s="1"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="121" t="s">
+      <c r="A38" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="118" t="s">
+      <c r="B38" s="135" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="1">
@@ -5424,8 +5512,8 @@
       <c r="X38" s="1"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="121"/>
-      <c r="B39" s="118"/>
+      <c r="A39" s="142"/>
+      <c r="B39" s="135"/>
       <c r="C39" s="11">
         <v>255659</v>
       </c>
@@ -5457,8 +5545,8 @@
       <c r="X39" s="1"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="121"/>
-      <c r="B40" s="118"/>
+      <c r="A40" s="142"/>
+      <c r="B40" s="135"/>
       <c r="C40" s="11">
         <v>255661</v>
       </c>
@@ -5490,8 +5578,8 @@
       <c r="X40" s="1"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="121"/>
-      <c r="B41" s="118"/>
+      <c r="A41" s="142"/>
+      <c r="B41" s="135"/>
       <c r="C41" s="11">
         <v>255662</v>
       </c>
@@ -5523,8 +5611,8 @@
       <c r="X41" s="1"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="121"/>
-      <c r="B42" s="119"/>
+      <c r="A42" s="142"/>
+      <c r="B42" s="129"/>
       <c r="C42" s="16">
         <v>255657</v>
       </c>
@@ -5556,8 +5644,8 @@
       <c r="X42" s="1"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="121"/>
-      <c r="B43" s="117" t="s">
+      <c r="A43" s="142"/>
+      <c r="B43" s="140" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="1">
@@ -5599,8 +5687,8 @@
       <c r="X43" s="1"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="121"/>
-      <c r="B44" s="118" t="s">
+      <c r="A44" s="142"/>
+      <c r="B44" s="135" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="11">
@@ -5635,8 +5723,8 @@
       <c r="X44" s="1"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="121"/>
-      <c r="B45" s="118"/>
+      <c r="A45" s="142"/>
+      <c r="B45" s="135"/>
       <c r="C45" s="11">
         <v>255665</v>
       </c>
@@ -5669,8 +5757,8 @@
       <c r="X45" s="1"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="121"/>
-      <c r="B46" s="118"/>
+      <c r="A46" s="142"/>
+      <c r="B46" s="135"/>
       <c r="C46" s="11">
         <v>255666</v>
       </c>
@@ -5702,8 +5790,8 @@
       <c r="L46" s="104"/>
     </row>
     <row r="47" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="122"/>
-      <c r="B47" s="119"/>
+      <c r="A47" s="143"/>
+      <c r="B47" s="129"/>
       <c r="C47" s="16">
         <v>255660</v>
       </c>
@@ -5735,10 +5823,10 @@
       <c r="L47" s="104"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="124" t="s">
+      <c r="A48" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="118" t="s">
+      <c r="B48" s="135" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="38">
@@ -5780,8 +5868,8 @@
       <c r="N48" s="64"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="124"/>
-      <c r="B49" s="118"/>
+      <c r="A49" s="137"/>
+      <c r="B49" s="135"/>
       <c r="C49" s="11">
         <v>256293</v>
       </c>
@@ -5815,8 +5903,8 @@
       <c r="N49" s="64"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="124"/>
-      <c r="B50" s="118"/>
+      <c r="A50" s="137"/>
+      <c r="B50" s="135"/>
       <c r="C50" s="11">
         <v>256294</v>
       </c>
@@ -5850,8 +5938,8 @@
       <c r="N50" s="64"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="124"/>
-      <c r="B51" s="118"/>
+      <c r="A51" s="137"/>
+      <c r="B51" s="135"/>
       <c r="C51" s="11">
         <v>256295</v>
       </c>
@@ -5885,8 +5973,8 @@
       <c r="N51" s="64"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="124"/>
-      <c r="B52" s="119"/>
+      <c r="A52" s="137"/>
+      <c r="B52" s="129"/>
       <c r="C52" s="16">
         <v>256291</v>
       </c>
@@ -5920,8 +6008,8 @@
       <c r="N52" s="64"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="124"/>
-      <c r="B53" s="117" t="s">
+      <c r="A53" s="137"/>
+      <c r="B53" s="140" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="14">
@@ -5963,8 +6051,8 @@
       <c r="N53" s="64"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="124"/>
-      <c r="B54" s="118"/>
+      <c r="A54" s="137"/>
+      <c r="B54" s="135"/>
       <c r="C54" s="11">
         <v>256298</v>
       </c>
@@ -5998,8 +6086,8 @@
       <c r="N54" s="64"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="124"/>
-      <c r="B55" s="118"/>
+      <c r="A55" s="137"/>
+      <c r="B55" s="135"/>
       <c r="C55" s="11">
         <v>256299</v>
       </c>
@@ -6033,8 +6121,8 @@
       <c r="N55" s="64"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="124"/>
-      <c r="B56" s="118"/>
+      <c r="A56" s="137"/>
+      <c r="B56" s="135"/>
       <c r="C56" s="11">
         <v>256300</v>
       </c>
@@ -6068,8 +6156,8 @@
       <c r="N56" s="64"/>
     </row>
     <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="125"/>
-      <c r="B57" s="118"/>
+      <c r="A57" s="146"/>
+      <c r="B57" s="135"/>
       <c r="C57" s="1">
         <v>256296</v>
       </c>
@@ -6089,7 +6177,7 @@
       <c r="K57" s="96"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B58" s="117" t="s">
+      <c r="B58" s="140" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="14">
@@ -6103,7 +6191,7 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="119"/>
+      <c r="B59" s="129"/>
       <c r="C59" s="16">
         <v>256335</v>
       </c>
@@ -6135,18 +6223,18 @@
     </row>
     <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="135" t="s">
+      <c r="A64" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="136"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="137"/>
+      <c r="B64" s="156"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="157"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="123" t="s">
+      <c r="A65" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="117" t="s">
+      <c r="B65" s="140" t="s">
         <v>23</v>
       </c>
       <c r="C65" s="14">
@@ -6159,8 +6247,8 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="124"/>
-      <c r="B66" s="118"/>
+      <c r="A66" s="137"/>
+      <c r="B66" s="135"/>
       <c r="C66" s="11">
         <v>256310</v>
       </c>
@@ -6171,8 +6259,8 @@
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="124"/>
-      <c r="B67" s="118"/>
+      <c r="A67" s="137"/>
+      <c r="B67" s="135"/>
       <c r="C67" s="11">
         <v>256311</v>
       </c>
@@ -6183,8 +6271,8 @@
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="124"/>
-      <c r="B68" s="118"/>
+      <c r="A68" s="137"/>
+      <c r="B68" s="135"/>
       <c r="C68" s="11">
         <v>256312</v>
       </c>
@@ -6195,8 +6283,8 @@
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="124"/>
-      <c r="B69" s="119"/>
+      <c r="A69" s="137"/>
+      <c r="B69" s="129"/>
       <c r="C69" s="16">
         <v>256301</v>
       </c>
@@ -6207,8 +6295,8 @@
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="124"/>
-      <c r="B70" s="117" t="s">
+      <c r="A70" s="137"/>
+      <c r="B70" s="140" t="s">
         <v>24</v>
       </c>
       <c r="C70" s="14">
@@ -6221,8 +6309,8 @@
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="124"/>
-      <c r="B71" s="118"/>
+      <c r="A71" s="137"/>
+      <c r="B71" s="135"/>
       <c r="C71" s="11">
         <v>256330</v>
       </c>
@@ -6233,8 +6321,8 @@
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="124"/>
-      <c r="B72" s="118"/>
+      <c r="A72" s="137"/>
+      <c r="B72" s="135"/>
       <c r="C72" s="11">
         <v>256331</v>
       </c>
@@ -6245,8 +6333,8 @@
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="124"/>
-      <c r="B73" s="118"/>
+      <c r="A73" s="137"/>
+      <c r="B73" s="135"/>
       <c r="C73" s="11">
         <v>256332</v>
       </c>
@@ -6257,8 +6345,8 @@
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="125"/>
-      <c r="B74" s="119"/>
+      <c r="A74" s="146"/>
+      <c r="B74" s="129"/>
       <c r="C74" s="16">
         <v>256326</v>
       </c>
@@ -6269,10 +6357,10 @@
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="123" t="s">
+      <c r="A75" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="117" t="s">
+      <c r="B75" s="140" t="s">
         <v>25</v>
       </c>
       <c r="C75" s="14">
@@ -6285,8 +6373,8 @@
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="124"/>
-      <c r="B76" s="118"/>
+      <c r="A76" s="137"/>
+      <c r="B76" s="135"/>
       <c r="C76" s="11">
         <v>256334</v>
       </c>
@@ -6297,8 +6385,8 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="124"/>
-      <c r="B77" s="118"/>
+      <c r="A77" s="137"/>
+      <c r="B77" s="135"/>
       <c r="C77" s="11">
         <v>256336</v>
       </c>
@@ -6309,8 +6397,8 @@
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="124"/>
-      <c r="B78" s="118"/>
+      <c r="A78" s="137"/>
+      <c r="B78" s="135"/>
       <c r="C78" s="11">
         <v>256337</v>
       </c>
@@ -6321,8 +6409,8 @@
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="124"/>
-      <c r="B79" s="119"/>
+      <c r="A79" s="137"/>
+      <c r="B79" s="129"/>
       <c r="C79" s="16">
         <v>256328</v>
       </c>
@@ -6333,8 +6421,8 @@
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="124"/>
-      <c r="B80" s="117" t="s">
+      <c r="A80" s="137"/>
+      <c r="B80" s="140" t="s">
         <v>36</v>
       </c>
       <c r="C80" s="14">
@@ -6347,8 +6435,8 @@
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="124"/>
-      <c r="B81" s="118" t="s">
+      <c r="A81" s="137"/>
+      <c r="B81" s="135" t="s">
         <v>33</v>
       </c>
       <c r="C81" s="11">
@@ -6361,8 +6449,8 @@
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="124"/>
-      <c r="B82" s="118"/>
+      <c r="A82" s="137"/>
+      <c r="B82" s="135"/>
       <c r="C82" s="11">
         <v>256340</v>
       </c>
@@ -6373,8 +6461,8 @@
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="124"/>
-      <c r="B83" s="118"/>
+      <c r="A83" s="137"/>
+      <c r="B83" s="135"/>
       <c r="C83" s="11">
         <v>256341</v>
       </c>
@@ -6385,8 +6473,8 @@
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="125"/>
-      <c r="B84" s="119"/>
+      <c r="A84" s="146"/>
+      <c r="B84" s="129"/>
       <c r="C84" s="16">
         <v>256329</v>
       </c>
@@ -6398,6 +6486,58 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A75:A84"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q23"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:B32"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="A3:A7"/>
@@ -6410,58 +6550,6 @@
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q23"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:A74"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="A75:A84"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="B80:B84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6493,13 +6581,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="131"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="134"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6517,17 +6605,17 @@
       <c r="E2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="129" t="s">
+      <c r="O2" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="131"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="134"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="140" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="14">
@@ -6565,8 +6653,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="124"/>
-      <c r="B4" s="118"/>
+      <c r="A4" s="137"/>
+      <c r="B4" s="135"/>
       <c r="C4" s="11">
         <v>255726</v>
       </c>
@@ -6576,16 +6664,16 @@
       <c r="E4" s="19">
         <v>577.346727805</v>
       </c>
-      <c r="J4" s="150" t="s">
+      <c r="J4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="127" t="s">
+      <c r="K4" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="127">
+      <c r="L4" s="126">
         <v>10</v>
       </c>
-      <c r="M4" s="127">
+      <c r="M4" s="126">
         <v>22</v>
       </c>
       <c r="N4" s="11" t="s">
@@ -6605,8 +6693,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
-      <c r="B5" s="118"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="135"/>
       <c r="C5" s="11">
         <v>255728</v>
       </c>
@@ -6616,10 +6704,10 @@
       <c r="E5" s="19">
         <v>576.43512899699999</v>
       </c>
-      <c r="J5" s="152"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
       <c r="N5" s="11" t="s">
         <v>30</v>
       </c>
@@ -6637,8 +6725,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="124"/>
-      <c r="B6" s="118"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="11">
         <v>255729</v>
       </c>
@@ -6648,16 +6736,16 @@
       <c r="E6" s="19">
         <v>579.40429448099997</v>
       </c>
-      <c r="J6" s="150" t="s">
+      <c r="J6" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="127" t="s">
+      <c r="K6" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="127">
+      <c r="L6" s="126">
         <v>10</v>
       </c>
-      <c r="M6" s="127">
+      <c r="M6" s="126">
         <v>22</v>
       </c>
       <c r="N6" s="11" t="s">
@@ -6677,8 +6765,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="125"/>
-      <c r="B7" s="119"/>
+      <c r="A7" s="146"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="16">
         <v>255723</v>
       </c>
@@ -6688,10 +6776,10 @@
       <c r="E7" s="17">
         <v>576.95817390900004</v>
       </c>
-      <c r="J7" s="155"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
       <c r="N7" s="16" t="s">
         <v>30</v>
       </c>
@@ -6709,10 +6797,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="140" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="14">
@@ -6727,8 +6815,8 @@
       <c r="M8" s="23"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="124"/>
-      <c r="B9" s="118"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="11">
         <v>255673</v>
       </c>
@@ -6741,8 +6829,8 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="124"/>
-      <c r="B10" s="118"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="135"/>
       <c r="C10" s="11">
         <v>255674</v>
       </c>
@@ -6755,16 +6843,16 @@
       <c r="J10" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="129" t="s">
+      <c r="M10" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="130"/>
-      <c r="O10" s="131"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="134"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="124"/>
-      <c r="B11" s="118"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="11">
         <v>255675</v>
       </c>
@@ -6795,8 +6883,8 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="124"/>
-      <c r="B12" s="119"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="16">
         <v>255669</v>
       </c>
@@ -6806,13 +6894,13 @@
       <c r="E12" s="17">
         <v>1632.490843883</v>
       </c>
-      <c r="J12" s="150" t="s">
+      <c r="J12" s="158" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="20">
         <v>5000000</v>
       </c>
-      <c r="L12" s="127">
+      <c r="L12" s="126">
         <v>16</v>
       </c>
       <c r="M12" s="26">
@@ -6830,8 +6918,8 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="124"/>
-      <c r="B13" s="117" t="s">
+      <c r="A13" s="137"/>
+      <c r="B13" s="140" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="14">
@@ -6843,11 +6931,11 @@
       <c r="E13" s="15">
         <v>374.31231366899999</v>
       </c>
-      <c r="J13" s="152"/>
+      <c r="J13" s="160"/>
       <c r="K13" s="20">
         <v>10000000</v>
       </c>
-      <c r="L13" s="134"/>
+      <c r="L13" s="130"/>
       <c r="M13" s="26">
         <f>AVERAGE(E18:E22)</f>
         <v>1353.8738209298001</v>
@@ -6862,8 +6950,8 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="124"/>
-      <c r="B14" s="118"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="11">
         <v>255670</v>
       </c>
@@ -6873,13 +6961,13 @@
       <c r="E14" s="19">
         <v>417.44163908600001</v>
       </c>
-      <c r="J14" s="150" t="s">
+      <c r="J14" s="158" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="20">
         <v>5000000</v>
       </c>
-      <c r="L14" s="127">
+      <c r="L14" s="126">
         <v>16</v>
       </c>
       <c r="M14" s="26">
@@ -6896,8 +6984,8 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="124"/>
-      <c r="B15" s="118"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="11">
         <v>255671</v>
       </c>
@@ -6907,11 +6995,11 @@
       <c r="E15" s="19">
         <v>438.08886448499999</v>
       </c>
-      <c r="J15" s="155"/>
+      <c r="J15" s="159"/>
       <c r="K15" s="21">
         <v>10000000</v>
       </c>
-      <c r="L15" s="128"/>
+      <c r="L15" s="127"/>
       <c r="M15" s="27">
         <f>AVERAGE(E8:E12)</f>
         <v>1616.8707725613999</v>
@@ -6926,8 +7014,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="124"/>
-      <c r="B16" s="118"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="11">
         <v>255672</v>
       </c>
@@ -6939,8 +7027,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="125"/>
-      <c r="B17" s="119"/>
+      <c r="A17" s="146"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="16">
         <v>255667</v>
       </c>
@@ -6952,10 +7040,10 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="140" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="14">
@@ -6967,15 +7055,15 @@
       <c r="E18" s="15">
         <v>1243.7553363019999</v>
       </c>
-      <c r="N18" s="129" t="s">
+      <c r="N18" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="130"/>
-      <c r="P18" s="131"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="134"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="118"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="135"/>
       <c r="C19" s="11">
         <v>255687</v>
       </c>
@@ -7008,8 +7096,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="124"/>
-      <c r="B20" s="118"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="135"/>
       <c r="C20" s="11">
         <v>255688</v>
       </c>
@@ -7019,34 +7107,34 @@
       <c r="E20" s="19">
         <v>1472.8958422410001</v>
       </c>
-      <c r="J20" s="150" t="s">
+      <c r="J20" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="127" t="s">
+      <c r="K20" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="127" t="s">
+      <c r="L20" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="127">
+      <c r="M20" s="126">
         <v>1</v>
       </c>
-      <c r="N20" s="141">
+      <c r="N20" s="148">
         <f>AVERAGE(E53:E57)</f>
         <v>749.87752970099996</v>
       </c>
-      <c r="O20" s="127">
+      <c r="O20" s="126">
         <f>AVERAGE(D53:D57)</f>
         <v>8075.3479543951998</v>
       </c>
-      <c r="P20" s="143">
+      <c r="P20" s="150">
         <f>(O20-N20)/N20</f>
         <v>9.7688890979505665</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="124"/>
-      <c r="B21" s="118"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="135"/>
       <c r="C21" s="11">
         <v>255689</v>
       </c>
@@ -7056,17 +7144,17 @@
       <c r="E21" s="19">
         <v>1343.365918854</v>
       </c>
-      <c r="J21" s="151"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="134"/>
-      <c r="P21" s="144"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="151"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="124"/>
-      <c r="B22" s="119"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="129"/>
       <c r="C22" s="16">
         <v>255685</v>
       </c>
@@ -7076,30 +7164,30 @@
       <c r="E22" s="17">
         <v>1399.614407113</v>
       </c>
-      <c r="J22" s="151"/>
-      <c r="K22" s="127" t="s">
+      <c r="J22" s="165"/>
+      <c r="K22" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="140"/>
-      <c r="M22" s="127">
+      <c r="L22" s="154"/>
+      <c r="M22" s="126">
         <v>1</v>
       </c>
-      <c r="N22" s="141">
+      <c r="N22" s="148">
         <f>AVERAGE(E48:E52)</f>
         <v>135.39791187040001</v>
       </c>
-      <c r="O22" s="127">
+      <c r="O22" s="126">
         <f>AVERAGE(D48:D52)</f>
         <v>4944.1436785696005</v>
       </c>
-      <c r="P22" s="143">
+      <c r="P22" s="150">
         <f>(O22-N22)/N22</f>
         <v>35.515656779862525</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="124"/>
-      <c r="B23" s="117" t="s">
+      <c r="A23" s="137"/>
+      <c r="B23" s="140" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="14">
@@ -7111,17 +7199,17 @@
       <c r="E23" s="15">
         <v>873.65599787199994</v>
       </c>
-      <c r="J23" s="152"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="142"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="144"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="151"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="124"/>
-      <c r="B24" s="118"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="135"/>
       <c r="C24" s="11">
         <v>255678</v>
       </c>
@@ -7131,34 +7219,34 @@
       <c r="E24" s="19">
         <v>892.79640007700004</v>
       </c>
-      <c r="J24" s="150" t="s">
+      <c r="J24" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="127" t="s">
+      <c r="K24" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="127" t="s">
+      <c r="L24" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="M24" s="127">
+      <c r="M24" s="126">
         <v>16</v>
       </c>
-      <c r="N24" s="141">
+      <c r="N24" s="148">
         <f>AVERAGE(E3:E7)</f>
         <v>576.85754647079989</v>
       </c>
-      <c r="O24" s="127">
+      <c r="O24" s="126">
         <f>AVERAGE(D3:D7)</f>
         <v>572.71763656300004</v>
       </c>
-      <c r="P24" s="143">
+      <c r="P24" s="150">
         <f>(O24-N24)/N24</f>
         <v>-7.1766590090182802E-3</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="124"/>
-      <c r="B25" s="118"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="135"/>
       <c r="C25" s="11">
         <v>255681</v>
       </c>
@@ -7168,17 +7256,17 @@
       <c r="E25" s="19">
         <v>933.84901420599999</v>
       </c>
-      <c r="J25" s="155"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="128"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="145"/>
-      <c r="O25" s="128"/>
-      <c r="P25" s="144"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="151"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="124"/>
-      <c r="B26" s="118"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="135"/>
       <c r="C26" s="11">
         <v>255684</v>
       </c>
@@ -7190,8 +7278,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="125"/>
-      <c r="B27" s="119"/>
+      <c r="A27" s="146"/>
+      <c r="B27" s="129"/>
       <c r="C27" s="16">
         <v>255676</v>
       </c>
@@ -7202,17 +7290,17 @@
         <v>830.76432543299995</v>
       </c>
       <c r="J27" s="98"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="138"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="147"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="123" t="s">
+      <c r="A28" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="140" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="8">
@@ -7224,15 +7312,15 @@
       <c r="E28" s="9">
         <v>252.13807260600001</v>
       </c>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="138"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="147"/>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="124"/>
-      <c r="B29" s="118"/>
+      <c r="A29" s="137"/>
+      <c r="B29" s="135"/>
       <c r="C29" s="11">
         <v>255649</v>
       </c>
@@ -7244,8 +7332,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="124"/>
-      <c r="B30" s="118"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="135"/>
       <c r="C30" s="11">
         <v>255650</v>
       </c>
@@ -7257,8 +7345,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="124"/>
-      <c r="B31" s="118"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="135"/>
       <c r="C31" s="11">
         <v>255651</v>
       </c>
@@ -7270,8 +7358,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="124"/>
-      <c r="B32" s="119"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="129"/>
       <c r="C32" s="16">
         <v>255647</v>
       </c>
@@ -7284,8 +7372,8 @@
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="124"/>
-      <c r="B33" s="117" t="s">
+      <c r="A33" s="137"/>
+      <c r="B33" s="140" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="1">
@@ -7300,8 +7388,8 @@
       <c r="S33" s="22"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="124"/>
-      <c r="B34" s="118"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="135"/>
       <c r="C34" s="11">
         <v>255654</v>
       </c>
@@ -7321,8 +7409,8 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="124"/>
-      <c r="B35" s="118"/>
+      <c r="A35" s="137"/>
+      <c r="B35" s="135"/>
       <c r="C35" s="11">
         <v>255655</v>
       </c>
@@ -7335,8 +7423,8 @@
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="124"/>
-      <c r="B36" s="118"/>
+      <c r="A36" s="137"/>
+      <c r="B36" s="135"/>
       <c r="C36" s="11">
         <v>255656</v>
       </c>
@@ -7349,8 +7437,8 @@
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="125"/>
-      <c r="B37" s="119"/>
+      <c r="A37" s="146"/>
+      <c r="B37" s="129"/>
       <c r="C37" s="16">
         <v>255652</v>
       </c>
@@ -7363,10 +7451,10 @@
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="123" t="s">
+      <c r="A38" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="117" t="s">
+      <c r="B38" s="140" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="1">
@@ -7381,8 +7469,8 @@
       <c r="S38" s="1"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="124"/>
-      <c r="B39" s="118"/>
+      <c r="A39" s="137"/>
+      <c r="B39" s="135"/>
       <c r="C39" s="11">
         <v>255659</v>
       </c>
@@ -7395,8 +7483,8 @@
       <c r="S39" s="1"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="124"/>
-      <c r="B40" s="118"/>
+      <c r="A40" s="137"/>
+      <c r="B40" s="135"/>
       <c r="C40" s="11">
         <v>255661</v>
       </c>
@@ -7409,8 +7497,8 @@
       <c r="S40" s="1"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="124"/>
-      <c r="B41" s="118"/>
+      <c r="A41" s="137"/>
+      <c r="B41" s="135"/>
       <c r="C41" s="11">
         <v>255662</v>
       </c>
@@ -7423,8 +7511,8 @@
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="124"/>
-      <c r="B42" s="119"/>
+      <c r="A42" s="137"/>
+      <c r="B42" s="129"/>
       <c r="C42" s="16">
         <v>255657</v>
       </c>
@@ -7437,8 +7525,8 @@
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="124"/>
-      <c r="B43" s="117" t="s">
+      <c r="A43" s="137"/>
+      <c r="B43" s="140" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="1">
@@ -7453,8 +7541,8 @@
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="124"/>
-      <c r="B44" s="118" t="s">
+      <c r="A44" s="137"/>
+      <c r="B44" s="135" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="11">
@@ -7469,8 +7557,8 @@
       <c r="S44" s="1"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="124"/>
-      <c r="B45" s="118"/>
+      <c r="A45" s="137"/>
+      <c r="B45" s="135"/>
       <c r="C45" s="11">
         <v>255665</v>
       </c>
@@ -7484,8 +7572,8 @@
       <c r="S45" s="1"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="124"/>
-      <c r="B46" s="118"/>
+      <c r="A46" s="137"/>
+      <c r="B46" s="135"/>
       <c r="C46" s="11">
         <v>255666</v>
       </c>
@@ -7497,8 +7585,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="125"/>
-      <c r="B47" s="119"/>
+      <c r="A47" s="146"/>
+      <c r="B47" s="129"/>
       <c r="C47" s="16">
         <v>255660</v>
       </c>
@@ -7510,10 +7598,10 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="123" t="s">
+      <c r="A48" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="117" t="s">
+      <c r="B48" s="140" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="14">
@@ -7527,8 +7615,8 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="124"/>
-      <c r="B49" s="118"/>
+      <c r="A49" s="137"/>
+      <c r="B49" s="135"/>
       <c r="C49" s="11">
         <v>256022</v>
       </c>
@@ -7540,8 +7628,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="124"/>
-      <c r="B50" s="118"/>
+      <c r="A50" s="137"/>
+      <c r="B50" s="135"/>
       <c r="C50" s="11">
         <v>256023</v>
       </c>
@@ -7553,8 +7641,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="124"/>
-      <c r="B51" s="118"/>
+      <c r="A51" s="137"/>
+      <c r="B51" s="135"/>
       <c r="C51" s="11">
         <v>256024</v>
       </c>
@@ -7566,8 +7654,8 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="124"/>
-      <c r="B52" s="119"/>
+      <c r="A52" s="137"/>
+      <c r="B52" s="129"/>
       <c r="C52" s="16">
         <v>256020</v>
       </c>
@@ -7579,8 +7667,8 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="124"/>
-      <c r="B53" s="117" t="s">
+      <c r="A53" s="137"/>
+      <c r="B53" s="140" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="14">
@@ -7594,8 +7682,8 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="124"/>
-      <c r="B54" s="118"/>
+      <c r="A54" s="137"/>
+      <c r="B54" s="135"/>
       <c r="C54" s="11">
         <v>256017</v>
       </c>
@@ -7607,8 +7695,8 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="124"/>
-      <c r="B55" s="118"/>
+      <c r="A55" s="137"/>
+      <c r="B55" s="135"/>
       <c r="C55" s="11">
         <v>256018</v>
       </c>
@@ -7620,8 +7708,8 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="124"/>
-      <c r="B56" s="118"/>
+      <c r="A56" s="137"/>
+      <c r="B56" s="135"/>
       <c r="C56" s="11">
         <v>256019</v>
       </c>
@@ -7633,8 +7721,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="125"/>
-      <c r="B57" s="119"/>
+      <c r="A57" s="146"/>
+      <c r="B57" s="129"/>
       <c r="C57" s="5">
         <v>256015</v>
       </c>
@@ -7647,20 +7735,20 @@
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="147" t="s">
+      <c r="A61" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="148"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="148"/>
-      <c r="E61" s="148"/>
-      <c r="F61" s="148"/>
-      <c r="G61" s="148"/>
-      <c r="H61" s="148"/>
-      <c r="I61" s="148"/>
-      <c r="J61" s="148"/>
-      <c r="K61" s="148"/>
-      <c r="L61" s="149"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
+      <c r="E61" s="163"/>
+      <c r="F61" s="163"/>
+      <c r="G61" s="163"/>
+      <c r="H61" s="163"/>
+      <c r="I61" s="163"/>
+      <c r="J61" s="163"/>
+      <c r="K61" s="163"/>
+      <c r="L61" s="164"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -7678,13 +7766,13 @@
       </c>
       <c r="F62" s="76"/>
       <c r="G62" s="76"/>
-      <c r="H62" s="153" t="s">
+      <c r="H62" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="I62" s="153"/>
-      <c r="J62" s="153"/>
-      <c r="K62" s="153"/>
-      <c r="L62" s="154"/>
+      <c r="I62" s="166"/>
+      <c r="J62" s="166"/>
+      <c r="K62" s="166"/>
+      <c r="L62" s="167"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -7901,24 +7989,45 @@
       <c r="L72" s="6"/>
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="146"/>
-      <c r="B83" s="146"/>
-      <c r="C83" s="146"/>
+      <c r="A83" s="161"/>
+      <c r="B83" s="161"/>
+      <c r="C83" s="161"/>
       <c r="D83" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B18:B22"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="J12:J13"/>
@@ -7935,38 +8044,17 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="M22:M23"/>
     <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7985,18 +8073,18 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="158"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
